--- a/doc/NC-LIMS系统字段对照表_20190813_HF.xlsx
+++ b/doc/NC-LIMS系统字段对照表_20190813_HF.xlsx
@@ -13,6 +13,7 @@
     <sheet name="图片页" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1616,9 +1617,6 @@
     <t>c_proj_task_para_b.PROJECT</t>
   </si>
   <si>
-    <t>c_proj_task_para_b.SPEC_RULE</t>
-  </si>
-  <si>
     <t>c_proj_task_para_b.TASK_NAME</t>
   </si>
   <si>
@@ -2255,10 +2253,6 @@
   </si>
   <si>
     <t>c_proj_task.SEQ_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_proj_task.sample_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3754,10 +3748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RESULT.RESULT_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二次写入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4071,6 +4061,18 @@
   </si>
   <si>
     <t>c_proj_task.analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_proj_task.sample_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_proj_task_para_b.SPEC_RULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT.RESULT_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5069,9 +5071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K660"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E317" sqref="E317"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5091,7 +5093,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
       <c r="A1" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -5099,7 +5101,7 @@
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="81" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -5110,42 +5112,42 @@
     </row>
     <row r="3" spans="1:11" ht="40.5">
       <c r="A3" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>848</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="78" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -5156,10 +5158,10 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5167,21 +5169,21 @@
         <v>212</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
@@ -5191,10 +5193,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
@@ -5208,11 +5210,11 @@
       <c r="A7" s="77"/>
       <c r="B7" s="80"/>
       <c r="C7" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="16"/>
@@ -5224,11 +5226,11 @@
       <c r="A8" s="77"/>
       <c r="B8" s="80"/>
       <c r="C8" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="16"/>
@@ -5244,14 +5246,14 @@
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="15" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="19"/>
@@ -5261,21 +5263,21 @@
         <v>213</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>353</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="19"/>
@@ -5285,21 +5287,21 @@
         <v>214</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="15" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
@@ -5309,21 +5311,21 @@
         <v>215</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="15" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="19"/>
@@ -5333,21 +5335,21 @@
         <v>216</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="19"/>
@@ -5357,21 +5359,21 @@
         <v>217</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>253</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="15" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="19"/>
@@ -5381,45 +5383,45 @@
         <v>218</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>254</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="82" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="77"/>
       <c r="B16" s="80"/>
       <c r="C16" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="82"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5434,14 +5436,14 @@
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="15" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="19"/>
@@ -5451,21 +5453,21 @@
         <v>220</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>255</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="15" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
@@ -5475,21 +5477,21 @@
         <v>221</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>222</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="82" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
@@ -5499,7 +5501,7 @@
         <v>223</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>256</v>
@@ -5508,10 +5510,10 @@
       <c r="E20" s="82"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="19"/>
@@ -5521,7 +5523,7 @@
         <v>224</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>86</v>
@@ -5530,10 +5532,10 @@
       <c r="E21" s="82"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
@@ -5543,21 +5545,21 @@
         <v>225</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
@@ -5567,21 +5569,21 @@
         <v>226</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
@@ -5591,21 +5593,21 @@
         <v>227</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>258</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="15" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="19"/>
@@ -5615,21 +5617,21 @@
         <v>228</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="82" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
@@ -5639,7 +5641,7 @@
         <v>229</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>88</v>
@@ -5648,10 +5650,10 @@
       <c r="E26" s="82"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="19"/>
@@ -5661,7 +5663,7 @@
         <v>230</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>89</v>
@@ -5670,10 +5672,10 @@
       <c r="E27" s="82"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
@@ -5683,7 +5685,7 @@
         <v>231</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>90</v>
@@ -5692,10 +5694,10 @@
       <c r="E28" s="82"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="19"/>
@@ -5705,7 +5707,7 @@
         <v>232</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>260</v>
@@ -5714,10 +5716,10 @@
       <c r="E29" s="82"/>
       <c r="F29" s="15"/>
       <c r="G29" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="19"/>
@@ -5727,7 +5729,7 @@
         <v>233</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>234</v>
@@ -5736,10 +5738,10 @@
       <c r="E30" s="82"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="19"/>
@@ -5749,21 +5751,21 @@
         <v>235</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>261</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="15" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="19"/>
@@ -5773,21 +5775,21 @@
         <v>236</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>262</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="19"/>
@@ -5797,21 +5799,21 @@
         <v>237</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>263</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="15" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="19"/>
@@ -5821,21 +5823,21 @@
         <v>238</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>264</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="19"/>
@@ -5845,21 +5847,21 @@
         <v>239</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="19"/>
@@ -5869,21 +5871,21 @@
         <v>240</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="15" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="19"/>
@@ -5893,21 +5895,21 @@
         <v>241</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>266</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="19"/>
@@ -5917,25 +5919,25 @@
         <v>242</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5943,21 +5945,21 @@
         <v>243</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>267</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="19"/>
@@ -5967,25 +5969,25 @@
         <v>244</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="19" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5993,21 +5995,21 @@
         <v>245</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="19"/>
@@ -6017,21 +6019,21 @@
         <v>246</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="19"/>
@@ -6041,21 +6043,21 @@
         <v>247</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="19"/>
@@ -6065,25 +6067,25 @@
         <v>248</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="19" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6091,69 +6093,69 @@
         <v>249</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>268</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>646</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>647</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>920</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>648</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>922</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>649</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="19"/>
@@ -6163,7 +6165,7 @@
         <v>93</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -6179,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -6195,7 +6197,7 @@
         <v>95</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -6211,7 +6213,7 @@
         <v>117</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -6227,7 +6229,7 @@
         <v>118</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -6250,10 +6252,10 @@
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="19"/>
@@ -6266,14 +6268,14 @@
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="19"/>
@@ -6286,14 +6288,14 @@
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="19"/>
@@ -6306,14 +6308,14 @@
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="19"/>
@@ -6326,16 +6328,16 @@
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="19"/>
@@ -6348,16 +6350,16 @@
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="19"/>
@@ -6370,14 +6372,14 @@
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="19"/>
@@ -6390,14 +6392,14 @@
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="19"/>
@@ -6410,14 +6412,14 @@
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="19"/>
@@ -6426,22 +6428,22 @@
       <c r="A62" s="28"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="15" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6452,14 +6454,14 @@
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="19"/>
@@ -6472,14 +6474,14 @@
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="19"/>
@@ -6492,14 +6494,14 @@
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="19"/>
@@ -6512,14 +6514,14 @@
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="19"/>
@@ -6532,14 +6534,14 @@
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="19"/>
@@ -6552,14 +6554,14 @@
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="19"/>
@@ -6572,14 +6574,14 @@
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="19"/>
@@ -6592,20 +6594,20 @@
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="15" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -6616,14 +6618,14 @@
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="19"/>
@@ -6636,14 +6638,14 @@
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="19"/>
@@ -6656,14 +6658,14 @@
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="19"/>
@@ -6676,14 +6678,14 @@
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="19"/>
@@ -6696,14 +6698,14 @@
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="19"/>
@@ -6716,14 +6718,14 @@
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="19"/>
@@ -6736,14 +6738,14 @@
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="19"/>
@@ -6756,14 +6758,14 @@
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="19"/>
@@ -6776,14 +6778,14 @@
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="19"/>
@@ -6796,14 +6798,14 @@
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="19"/>
@@ -6816,14 +6818,14 @@
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="19"/>
@@ -6836,14 +6838,14 @@
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="19"/>
@@ -6856,14 +6858,14 @@
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="19"/>
@@ -6876,14 +6878,14 @@
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="19"/>
@@ -6896,14 +6898,14 @@
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="19"/>
@@ -6916,14 +6918,14 @@
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="19"/>
@@ -6936,14 +6938,14 @@
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="19"/>
@@ -6956,14 +6958,14 @@
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="19"/>
@@ -6976,14 +6978,14 @@
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="19"/>
@@ -6996,14 +6998,14 @@
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="19"/>
@@ -7016,14 +7018,14 @@
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="19"/>
@@ -7036,14 +7038,14 @@
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="19"/>
@@ -7056,14 +7058,14 @@
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="19"/>
@@ -7076,14 +7078,14 @@
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I94" s="18"/>
       <c r="J94" s="19"/>
@@ -7096,14 +7098,14 @@
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="19"/>
@@ -7116,14 +7118,14 @@
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="19"/>
@@ -7136,14 +7138,14 @@
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I97" s="18"/>
       <c r="J97" s="19"/>
@@ -7156,14 +7158,14 @@
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="19"/>
@@ -7176,14 +7178,14 @@
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="19"/>
@@ -7196,14 +7198,14 @@
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I100" s="18"/>
       <c r="J100" s="19"/>
@@ -7216,14 +7218,14 @@
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="19"/>
@@ -7236,14 +7238,14 @@
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="19"/>
@@ -7256,14 +7258,14 @@
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="15" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="19"/>
@@ -7272,22 +7274,22 @@
       <c r="A104" s="28"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I104" s="18"/>
       <c r="J104" s="19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7298,14 +7300,14 @@
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I105" s="18"/>
       <c r="J105" s="19"/>
@@ -7318,14 +7320,14 @@
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="19"/>
@@ -7334,18 +7336,18 @@
       <c r="A107" s="28"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="19"/>
@@ -7358,14 +7360,14 @@
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I108" s="18"/>
       <c r="J108" s="19"/>
@@ -7378,14 +7380,14 @@
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="19"/>
@@ -7398,14 +7400,14 @@
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="19"/>
@@ -7418,14 +7420,14 @@
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="19"/>
@@ -7438,14 +7440,14 @@
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="19"/>
@@ -7458,14 +7460,14 @@
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="19"/>
@@ -7478,14 +7480,14 @@
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="19"/>
@@ -7498,14 +7500,14 @@
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="19"/>
@@ -7518,14 +7520,14 @@
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="19"/>
@@ -7538,14 +7540,14 @@
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="19"/>
@@ -7558,14 +7560,14 @@
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="19"/>
@@ -7578,14 +7580,14 @@
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="19"/>
@@ -7598,14 +7600,14 @@
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="19"/>
@@ -7618,14 +7620,14 @@
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="19"/>
@@ -7638,14 +7640,14 @@
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="19"/>
@@ -7658,14 +7660,14 @@
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="19"/>
@@ -7678,14 +7680,14 @@
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="19"/>
@@ -7698,14 +7700,14 @@
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I125" s="18"/>
       <c r="J125" s="19"/>
@@ -7718,14 +7720,14 @@
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I126" s="18"/>
       <c r="J126" s="19"/>
@@ -7738,14 +7740,14 @@
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I127" s="18"/>
       <c r="J127" s="19"/>
@@ -7758,14 +7760,14 @@
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I128" s="18"/>
       <c r="J128" s="19"/>
@@ -7778,14 +7780,14 @@
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I129" s="18"/>
       <c r="J129" s="19"/>
@@ -7798,14 +7800,14 @@
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I130" s="18"/>
       <c r="J130" s="19"/>
@@ -7818,14 +7820,14 @@
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I131" s="18"/>
       <c r="J131" s="19"/>
@@ -7838,14 +7840,14 @@
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I132" s="18"/>
       <c r="J132" s="19"/>
@@ -7858,14 +7860,14 @@
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I133" s="18"/>
       <c r="J133" s="19"/>
@@ -7878,21 +7880,21 @@
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I134" s="18"/>
       <c r="J134" s="19"/>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="78" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B135" s="79"/>
       <c r="C135" s="79"/>
@@ -7909,14 +7911,14 @@
         <v>96</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F136" s="18"/>
       <c r="G136" s="16"/>
@@ -7929,7 +7931,7 @@
         <v>97</v>
       </c>
       <c r="B137" s="80" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>150</v>
@@ -7950,7 +7952,7 @@
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="27" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F138" s="27"/>
       <c r="G138" s="16"/>
@@ -7963,14 +7965,14 @@
         <v>99</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>100</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="27" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F139" s="27"/>
       <c r="G139" s="16"/>
@@ -7983,7 +7985,7 @@
         <v>101</v>
       </c>
       <c r="B140" s="80" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C140" s="18" t="s">
         <v>120</v>
@@ -7991,7 +7993,7 @@
       <c r="D140" s="18"/>
       <c r="E140" s="15"/>
       <c r="F140" s="54" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G140" s="16"/>
       <c r="H140" s="17"/>
@@ -8020,7 +8022,7 @@
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="27" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F142" s="27"/>
       <c r="G142" s="16"/>
@@ -8033,7 +8035,7 @@
         <v>102</v>
       </c>
       <c r="B143" s="80" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>121</v>
@@ -8068,7 +8070,7 @@
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="27" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F145" s="27"/>
       <c r="G145" s="16"/>
@@ -8081,14 +8083,14 @@
         <v>104</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>352</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="27" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F146" s="27"/>
       <c r="G146" s="16"/>
@@ -8098,17 +8100,17 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="20" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="30" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F147" s="30"/>
       <c r="G147" s="16"/>
@@ -8121,14 +8123,14 @@
         <v>105</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="16"/>
@@ -8141,14 +8143,14 @@
         <v>107</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F149" s="18"/>
       <c r="G149" s="16"/>
@@ -8161,14 +8163,14 @@
         <v>109</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C150" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F150" s="18"/>
       <c r="G150" s="16"/>
@@ -8181,14 +8183,14 @@
         <v>111</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="16"/>
@@ -8198,17 +8200,17 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="20" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="18" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F152" s="18"/>
       <c r="G152" s="16"/>
@@ -8221,14 +8223,14 @@
         <v>114</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C153" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F153" s="18"/>
       <c r="G153" s="16"/>
@@ -8241,14 +8243,14 @@
         <v>195</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="30" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F154" s="30"/>
       <c r="G154" s="16"/>
@@ -8261,7 +8263,7 @@
         <v>115</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
@@ -8277,7 +8279,7 @@
         <v>116</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
@@ -8296,7 +8298,7 @@
       </c>
       <c r="D157" s="29"/>
       <c r="E157" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="16"/>
@@ -8308,11 +8310,11 @@
       <c r="A158" s="28"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="16"/>
@@ -8328,7 +8330,7 @@
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="16"/>
@@ -8344,7 +8346,7 @@
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="16"/>
@@ -8360,7 +8362,7 @@
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="16"/>
@@ -8370,7 +8372,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="78" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B162" s="79"/>
       <c r="C162" s="79"/>
@@ -8387,7 +8389,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C163" s="18" t="s">
         <v>153</v>
@@ -8405,14 +8407,14 @@
         <v>162</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>154</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="25" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F164" s="25"/>
       <c r="G164" s="16"/>
@@ -8425,14 +8427,14 @@
         <v>163</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>155</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="25" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F165" s="25"/>
       <c r="G165" s="16"/>
@@ -8445,14 +8447,14 @@
         <v>164</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D166" s="18"/>
       <c r="E166" s="25" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F166" s="25"/>
       <c r="G166" s="16"/>
@@ -8465,14 +8467,14 @@
         <v>165</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>157</v>
       </c>
       <c r="D167" s="18"/>
       <c r="E167" s="25" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F167" s="25"/>
       <c r="G167" s="16"/>
@@ -8485,14 +8487,14 @@
         <v>166</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C168" s="18" t="s">
         <v>158</v>
       </c>
       <c r="D168" s="18"/>
       <c r="E168" s="25" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F168" s="25"/>
       <c r="G168" s="16"/>
@@ -8505,14 +8507,14 @@
         <v>167</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C169" s="18" t="s">
         <v>159</v>
       </c>
       <c r="D169" s="18"/>
       <c r="E169" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F169" s="25"/>
       <c r="G169" s="16"/>
@@ -8525,14 +8527,14 @@
         <v>168</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C170" s="18" t="s">
         <v>160</v>
       </c>
       <c r="D170" s="18"/>
       <c r="E170" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F170" s="25"/>
       <c r="G170" s="16"/>
@@ -8545,14 +8547,14 @@
         <v>195</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D171" s="18"/>
       <c r="E171" s="31" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F171" s="31"/>
       <c r="G171" s="16"/>
@@ -8565,14 +8567,14 @@
         <v>171</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C172" s="25" t="s">
         <v>362</v>
       </c>
       <c r="D172" s="25"/>
       <c r="E172" s="25" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F172" s="25"/>
       <c r="G172" s="16"/>
@@ -8585,7 +8587,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
@@ -8601,7 +8603,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
@@ -8617,7 +8619,7 @@
         <v>169</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
@@ -8636,7 +8638,7 @@
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="25" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F176" s="25"/>
       <c r="G176" s="16"/>
@@ -8652,7 +8654,7 @@
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F177" s="25"/>
       <c r="G177" s="16"/>
@@ -8668,7 +8670,7 @@
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="31" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F178" s="31"/>
       <c r="G178" s="16"/>
@@ -8684,7 +8686,7 @@
       </c>
       <c r="D179" s="29"/>
       <c r="E179" s="25" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F179" s="25"/>
       <c r="G179" s="16"/>
@@ -8700,7 +8702,7 @@
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="25" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F180" s="25"/>
       <c r="G180" s="16"/>
@@ -8716,7 +8718,7 @@
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="25" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F181" s="25"/>
       <c r="G181" s="16"/>
@@ -8732,7 +8734,7 @@
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="25" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F182" s="25"/>
       <c r="G182" s="16"/>
@@ -8748,7 +8750,7 @@
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="25" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F183" s="25"/>
       <c r="G183" s="16"/>
@@ -8764,7 +8766,7 @@
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="25" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F184" s="25"/>
       <c r="G184" s="16"/>
@@ -8780,7 +8782,7 @@
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="25" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F185" s="25"/>
       <c r="G185" s="16"/>
@@ -8790,7 +8792,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="78" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B186" s="79"/>
       <c r="C186" s="79"/>
@@ -8807,14 +8809,14 @@
         <v>196</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D187" s="18"/>
       <c r="E187" s="15" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F187" s="15"/>
       <c r="G187" s="16"/>
@@ -8827,14 +8829,14 @@
         <v>197</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D188" s="18"/>
       <c r="E188" s="15" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F188" s="15"/>
       <c r="G188" s="16"/>
@@ -8847,14 +8849,14 @@
         <v>198</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D189" s="18"/>
       <c r="E189" s="15" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F189" s="15"/>
       <c r="G189" s="16"/>
@@ -8867,14 +8869,14 @@
         <v>199</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D190" s="18"/>
       <c r="E190" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F190" s="15"/>
       <c r="G190" s="16"/>
@@ -8887,14 +8889,14 @@
         <v>200</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D191" s="18"/>
       <c r="E191" s="15" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F191" s="15"/>
       <c r="G191" s="16"/>
@@ -8907,14 +8909,14 @@
         <v>201</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>365</v>
       </c>
       <c r="D192" s="18"/>
       <c r="E192" s="15" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F192" s="15"/>
       <c r="G192" s="16"/>
@@ -8927,14 +8929,14 @@
         <v>195</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D193" s="18"/>
       <c r="E193" s="15" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F193" s="15"/>
       <c r="G193" s="16"/>
@@ -8947,10 +8949,10 @@
         <v>210</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>667</v>
+        <v>1157</v>
       </c>
       <c r="D194" s="18"/>
       <c r="E194" s="15"/>
@@ -8965,14 +8967,14 @@
         <v>209</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D195" s="18"/>
       <c r="E195" s="15" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F195" s="15"/>
       <c r="G195" s="16"/>
@@ -8985,7 +8987,7 @@
         <v>202</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="18"/>
@@ -9001,7 +9003,7 @@
         <v>204</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="18"/>
@@ -9017,7 +9019,7 @@
         <v>205</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
@@ -9033,7 +9035,7 @@
         <v>207</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C199" s="18"/>
       <c r="D199" s="18"/>
@@ -9065,7 +9067,7 @@
         <v>203</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="18"/>
@@ -9212,7 +9214,7 @@
       </c>
       <c r="D210" s="29"/>
       <c r="E210" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F210" s="15"/>
       <c r="G210" s="16"/>
@@ -9228,7 +9230,7 @@
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="15" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F211" s="15"/>
       <c r="G211" s="16"/>
@@ -9260,7 +9262,7 @@
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F213" s="15"/>
       <c r="G213" s="16"/>
@@ -9276,7 +9278,7 @@
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F214" s="15"/>
       <c r="G214" s="16"/>
@@ -9292,7 +9294,7 @@
       </c>
       <c r="D215" s="29"/>
       <c r="E215" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F215" s="15"/>
       <c r="G215" s="16"/>
@@ -9308,7 +9310,7 @@
       </c>
       <c r="D216" s="29"/>
       <c r="E216" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F216" s="15"/>
       <c r="G216" s="16"/>
@@ -9324,7 +9326,7 @@
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F217" s="15"/>
       <c r="G217" s="16"/>
@@ -9340,7 +9342,7 @@
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F218" s="15"/>
       <c r="G218" s="16"/>
@@ -9356,7 +9358,7 @@
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F219" s="15"/>
       <c r="G219" s="16"/>
@@ -9372,7 +9374,7 @@
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F220" s="15"/>
       <c r="G220" s="16"/>
@@ -9388,7 +9390,7 @@
       </c>
       <c r="D221" s="29"/>
       <c r="E221" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F221" s="15"/>
       <c r="G221" s="16"/>
@@ -9404,7 +9406,7 @@
       </c>
       <c r="D222" s="29"/>
       <c r="E222" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F222" s="15"/>
       <c r="G222" s="16"/>
@@ -9420,7 +9422,7 @@
       </c>
       <c r="D223" s="29"/>
       <c r="E223" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F223" s="15"/>
       <c r="G223" s="16"/>
@@ -9436,7 +9438,7 @@
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F224" s="15"/>
       <c r="G224" s="16"/>
@@ -9452,7 +9454,7 @@
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F225" s="15"/>
       <c r="G225" s="16"/>
@@ -9468,7 +9470,7 @@
       </c>
       <c r="D226" s="29"/>
       <c r="E226" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F226" s="15"/>
       <c r="G226" s="16"/>
@@ -9484,7 +9486,7 @@
       </c>
       <c r="D227" s="29"/>
       <c r="E227" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F227" s="15"/>
       <c r="G227" s="16"/>
@@ -9500,7 +9502,7 @@
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="15" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F228" s="15"/>
       <c r="G228" s="16"/>
@@ -9516,7 +9518,7 @@
       </c>
       <c r="D229" s="29"/>
       <c r="E229" s="15" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F229" s="15"/>
       <c r="G229" s="16"/>
@@ -9532,7 +9534,7 @@
       </c>
       <c r="D230" s="29"/>
       <c r="E230" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F230" s="15"/>
       <c r="G230" s="16"/>
@@ -9548,7 +9550,7 @@
       </c>
       <c r="D231" s="29"/>
       <c r="E231" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F231" s="15"/>
       <c r="G231" s="16"/>
@@ -9564,7 +9566,7 @@
       </c>
       <c r="D232" s="29"/>
       <c r="E232" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F232" s="15"/>
       <c r="G232" s="16"/>
@@ -9580,7 +9582,7 @@
       </c>
       <c r="D233" s="29"/>
       <c r="E233" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F233" s="15"/>
       <c r="G233" s="16"/>
@@ -9596,7 +9598,7 @@
       </c>
       <c r="D234" s="29"/>
       <c r="E234" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F234" s="15"/>
       <c r="G234" s="16"/>
@@ -9612,7 +9614,7 @@
       </c>
       <c r="D235" s="29"/>
       <c r="E235" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F235" s="15"/>
       <c r="G235" s="16"/>
@@ -9628,7 +9630,7 @@
       </c>
       <c r="D236" s="29"/>
       <c r="E236" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F236" s="15"/>
       <c r="G236" s="16"/>
@@ -9644,7 +9646,7 @@
       </c>
       <c r="D237" s="29"/>
       <c r="E237" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F237" s="15"/>
       <c r="G237" s="16"/>
@@ -9660,7 +9662,7 @@
       </c>
       <c r="D238" s="29"/>
       <c r="E238" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F238" s="15"/>
       <c r="G238" s="16"/>
@@ -9676,7 +9678,7 @@
       </c>
       <c r="D239" s="29"/>
       <c r="E239" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F239" s="15"/>
       <c r="G239" s="16"/>
@@ -9692,7 +9694,7 @@
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F240" s="15"/>
       <c r="G240" s="16"/>
@@ -9708,7 +9710,7 @@
       </c>
       <c r="D241" s="29"/>
       <c r="E241" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F241" s="15"/>
       <c r="G241" s="16"/>
@@ -9724,7 +9726,7 @@
       </c>
       <c r="D242" s="29"/>
       <c r="E242" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F242" s="15"/>
       <c r="G242" s="16"/>
@@ -9740,7 +9742,7 @@
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F243" s="15"/>
       <c r="G243" s="16"/>
@@ -9756,7 +9758,7 @@
       </c>
       <c r="D244" s="29"/>
       <c r="E244" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F244" s="15"/>
       <c r="G244" s="16"/>
@@ -9772,7 +9774,7 @@
       </c>
       <c r="D245" s="29"/>
       <c r="E245" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F245" s="15"/>
       <c r="G245" s="16"/>
@@ -9788,7 +9790,7 @@
       </c>
       <c r="D246" s="29"/>
       <c r="E246" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F246" s="15"/>
       <c r="G246" s="16"/>
@@ -9804,7 +9806,7 @@
       </c>
       <c r="D247" s="29"/>
       <c r="E247" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F247" s="15"/>
       <c r="G247" s="16"/>
@@ -9820,7 +9822,7 @@
       </c>
       <c r="D248" s="29"/>
       <c r="E248" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F248" s="15"/>
       <c r="G248" s="16"/>
@@ -9836,7 +9838,7 @@
       </c>
       <c r="D249" s="29"/>
       <c r="E249" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F249" s="15"/>
       <c r="G249" s="16"/>
@@ -9852,7 +9854,7 @@
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F250" s="15"/>
       <c r="G250" s="16"/>
@@ -9868,7 +9870,7 @@
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F251" s="15"/>
       <c r="G251" s="16"/>
@@ -9884,7 +9886,7 @@
       </c>
       <c r="D252" s="29"/>
       <c r="E252" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F252" s="15"/>
       <c r="G252" s="16"/>
@@ -9900,7 +9902,7 @@
       </c>
       <c r="D253" s="29"/>
       <c r="E253" s="15" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F253" s="15"/>
       <c r="G253" s="16"/>
@@ -9916,7 +9918,7 @@
       </c>
       <c r="D254" s="29"/>
       <c r="E254" s="15" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F254" s="15"/>
       <c r="G254" s="16"/>
@@ -9932,7 +9934,7 @@
       </c>
       <c r="D255" s="29"/>
       <c r="E255" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F255" s="15"/>
       <c r="G255" s="16"/>
@@ -9948,7 +9950,7 @@
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F256" s="15"/>
       <c r="G256" s="16"/>
@@ -9964,7 +9966,7 @@
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F257" s="15"/>
       <c r="G257" s="16"/>
@@ -9980,7 +9982,7 @@
       </c>
       <c r="D258" s="29"/>
       <c r="E258" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F258" s="15"/>
       <c r="G258" s="16"/>
@@ -9996,7 +9998,7 @@
       </c>
       <c r="D259" s="29"/>
       <c r="E259" s="15" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F259" s="15"/>
       <c r="G259" s="16"/>
@@ -10012,7 +10014,7 @@
       </c>
       <c r="D260" s="29"/>
       <c r="E260" s="15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F260" s="15"/>
       <c r="G260" s="16"/>
@@ -10028,7 +10030,7 @@
       </c>
       <c r="D261" s="29"/>
       <c r="E261" s="15" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F261" s="15"/>
       <c r="G261" s="16"/>
@@ -10044,7 +10046,7 @@
       </c>
       <c r="D262" s="29"/>
       <c r="E262" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F262" s="15"/>
       <c r="G262" s="16"/>
@@ -10060,7 +10062,7 @@
       </c>
       <c r="D263" s="29"/>
       <c r="E263" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F263" s="15"/>
       <c r="G263" s="16"/>
@@ -10076,7 +10078,7 @@
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F264" s="15"/>
       <c r="G264" s="16"/>
@@ -10092,7 +10094,7 @@
       </c>
       <c r="D265" s="29"/>
       <c r="E265" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F265" s="15"/>
       <c r="G265" s="16"/>
@@ -10108,7 +10110,7 @@
       </c>
       <c r="D266" s="29"/>
       <c r="E266" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F266" s="15"/>
       <c r="G266" s="16"/>
@@ -10124,7 +10126,7 @@
       </c>
       <c r="D267" s="29"/>
       <c r="E267" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F267" s="15"/>
       <c r="G267" s="16"/>
@@ -10140,7 +10142,7 @@
       </c>
       <c r="D268" s="29"/>
       <c r="E268" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F268" s="15"/>
       <c r="G268" s="16"/>
@@ -10156,7 +10158,7 @@
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F269" s="15"/>
       <c r="G269" s="16"/>
@@ -10172,7 +10174,7 @@
       </c>
       <c r="D270" s="29"/>
       <c r="E270" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F270" s="15"/>
       <c r="G270" s="16"/>
@@ -10188,7 +10190,7 @@
       </c>
       <c r="D271" s="29"/>
       <c r="E271" s="15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F271" s="15"/>
       <c r="G271" s="16"/>
@@ -10204,7 +10206,7 @@
       </c>
       <c r="D272" s="29"/>
       <c r="E272" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F272" s="15"/>
       <c r="G272" s="16"/>
@@ -10220,7 +10222,7 @@
       </c>
       <c r="D273" s="29"/>
       <c r="E273" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F273" s="15"/>
       <c r="G273" s="16"/>
@@ -10236,7 +10238,7 @@
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F274" s="15"/>
       <c r="G274" s="16"/>
@@ -10252,7 +10254,7 @@
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F275" s="15"/>
       <c r="G275" s="16"/>
@@ -10268,7 +10270,7 @@
       </c>
       <c r="D276" s="29"/>
       <c r="E276" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F276" s="15"/>
       <c r="G276" s="16"/>
@@ -10284,7 +10286,7 @@
       </c>
       <c r="D277" s="29"/>
       <c r="E277" s="15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F277" s="15"/>
       <c r="G277" s="16"/>
@@ -10302,7 +10304,7 @@
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F278" s="15"/>
       <c r="G278" s="16"/>
@@ -10336,7 +10338,7 @@
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F280" s="15"/>
       <c r="G280" s="16"/>
@@ -10352,7 +10354,7 @@
       </c>
       <c r="D281" s="29"/>
       <c r="E281" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F281" s="15"/>
       <c r="G281" s="16"/>
@@ -10368,7 +10370,7 @@
       </c>
       <c r="D282" s="29"/>
       <c r="E282" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F282" s="15"/>
       <c r="G282" s="16"/>
@@ -10416,7 +10418,7 @@
       </c>
       <c r="D285" s="29"/>
       <c r="E285" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F285" s="15"/>
       <c r="G285" s="16"/>
@@ -10432,7 +10434,7 @@
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F286" s="15"/>
       <c r="G286" s="16"/>
@@ -10448,7 +10450,7 @@
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F287" s="15"/>
       <c r="G287" s="16"/>
@@ -10464,7 +10466,7 @@
       </c>
       <c r="D288" s="29"/>
       <c r="E288" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F288" s="15"/>
       <c r="G288" s="16"/>
@@ -10480,7 +10482,7 @@
       </c>
       <c r="D289" s="29"/>
       <c r="E289" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F289" s="15"/>
       <c r="G289" s="16"/>
@@ -10496,7 +10498,7 @@
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F290" s="15"/>
       <c r="G290" s="16"/>
@@ -10512,7 +10514,7 @@
       </c>
       <c r="D291" s="29"/>
       <c r="E291" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F291" s="15"/>
       <c r="G291" s="16"/>
@@ -10528,7 +10530,7 @@
       </c>
       <c r="D292" s="29"/>
       <c r="E292" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F292" s="15"/>
       <c r="G292" s="16"/>
@@ -10544,7 +10546,7 @@
       </c>
       <c r="D293" s="29"/>
       <c r="E293" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F293" s="15"/>
       <c r="G293" s="16"/>
@@ -10560,7 +10562,7 @@
       </c>
       <c r="D294" s="29"/>
       <c r="E294" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F294" s="15"/>
       <c r="G294" s="16"/>
@@ -10576,7 +10578,7 @@
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F295" s="15"/>
       <c r="G295" s="16"/>
@@ -10640,7 +10642,7 @@
       </c>
       <c r="D299" s="29"/>
       <c r="E299" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F299" s="15"/>
       <c r="G299" s="16"/>
@@ -10652,11 +10654,11 @@
       <c r="A300" s="28"/>
       <c r="B300" s="29"/>
       <c r="C300" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D300" s="29"/>
       <c r="E300" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F300" s="15"/>
       <c r="G300" s="16"/>
@@ -10666,7 +10668,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="78" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B301" s="79"/>
       <c r="C301" s="79"/>
@@ -10683,14 +10685,14 @@
         <v>69</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D302" s="18"/>
       <c r="E302" s="45" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F302" s="46"/>
       <c r="G302" s="16"/>
@@ -10703,14 +10705,14 @@
         <v>70</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C303" s="32" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D303" s="18"/>
       <c r="E303" s="45" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F303" s="46"/>
       <c r="G303" s="16"/>
@@ -10723,14 +10725,14 @@
         <v>71</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C304" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D304" s="18"/>
       <c r="E304" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F304" s="46"/>
       <c r="G304" s="16"/>
@@ -10743,14 +10745,14 @@
         <v>72</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C305" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D305" s="18"/>
       <c r="E305" s="45" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F305" s="46"/>
       <c r="G305" s="16"/>
@@ -10763,14 +10765,14 @@
         <v>73</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D306" s="18"/>
       <c r="E306" s="45" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F306" s="46"/>
       <c r="G306" s="16"/>
@@ -10783,25 +10785,25 @@
         <v>3</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D307" s="18"/>
       <c r="E307" s="45" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F307" s="68" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G307" s="63"/>
       <c r="H307" s="64"/>
       <c r="I307" s="74" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="J307" s="19" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -10809,14 +10811,14 @@
         <v>74</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D308" s="18"/>
       <c r="E308" s="45" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F308" s="46"/>
       <c r="G308" s="16"/>
@@ -10829,14 +10831,14 @@
         <v>75</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D309" s="18"/>
       <c r="E309" s="45" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F309" s="46"/>
       <c r="G309" s="16"/>
@@ -10849,14 +10851,14 @@
         <v>76</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D310" s="18"/>
       <c r="E310" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F310" s="46"/>
       <c r="G310" s="16"/>
@@ -10869,25 +10871,25 @@
         <v>77</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C311" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D311" s="18"/>
       <c r="E311" s="45" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F311" s="69" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G311" s="63"/>
       <c r="H311" s="64"/>
       <c r="I311" s="74" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="J311" s="19" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -10895,17 +10897,17 @@
         <v>175</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C312" s="86" t="s">
         <v>59</v>
       </c>
       <c r="D312" s="18"/>
       <c r="E312" s="45" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F312" s="56" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G312" s="16"/>
       <c r="H312" s="17"/>
@@ -10917,7 +10919,7 @@
         <v>176</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C313" s="87"/>
       <c r="D313" s="18"/>
@@ -10933,14 +10935,14 @@
         <v>78</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C314" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D314" s="18"/>
       <c r="E314" s="45" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F314" s="46"/>
       <c r="G314" s="16"/>
@@ -10953,7 +10955,7 @@
         <v>79</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="18"/>
@@ -10969,7 +10971,7 @@
         <v>173</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="18"/>
@@ -10985,7 +10987,7 @@
         <v>174</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="18"/>
@@ -11000,11 +11002,11 @@
       <c r="A318" s="28"/>
       <c r="B318" s="29"/>
       <c r="C318" s="29" t="s">
-        <v>1074</v>
+        <v>1159</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="45" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F318" s="46"/>
       <c r="G318" s="16"/>
@@ -11020,10 +11022,10 @@
       </c>
       <c r="D319" s="29"/>
       <c r="E319" s="45" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F319" s="55" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G319" s="16"/>
       <c r="H319" s="17"/>
@@ -11054,10 +11056,10 @@
       </c>
       <c r="D321" s="29"/>
       <c r="E321" s="45" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F321" s="55" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G321" s="16"/>
       <c r="H321" s="17"/>
@@ -11071,10 +11073,10 @@
         <v>54</v>
       </c>
       <c r="D322" s="75" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E322" s="61" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F322" s="46"/>
       <c r="G322" s="16"/>
@@ -11090,7 +11092,7 @@
       </c>
       <c r="D323" s="29"/>
       <c r="E323" s="45" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F323" s="46"/>
       <c r="G323" s="16"/>
@@ -11105,23 +11107,23 @@
         <v>52</v>
       </c>
       <c r="D324" s="76" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E324" s="61" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F324" s="67" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G324" s="63">
         <v>0</v>
       </c>
       <c r="H324" s="64"/>
       <c r="I324" s="74" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J324" s="19" t="s">
         <v>1126</v>
-      </c>
-      <c r="J324" s="19" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="108">
@@ -11132,7 +11134,7 @@
       </c>
       <c r="D325" s="29"/>
       <c r="E325" s="45" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F325" s="46"/>
       <c r="G325" s="16"/>
@@ -11148,18 +11150,18 @@
       </c>
       <c r="D326" s="29"/>
       <c r="E326" s="61" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F326" s="57" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G326" s="16"/>
       <c r="H326" s="17"/>
       <c r="I326" s="73" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="J326" s="19" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -11170,7 +11172,7 @@
       </c>
       <c r="D327" s="29"/>
       <c r="E327" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F327" s="46"/>
       <c r="G327" s="16"/>
@@ -11186,16 +11188,16 @@
       </c>
       <c r="D328" s="29"/>
       <c r="E328" s="61" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F328" s="46"/>
       <c r="G328" s="16"/>
       <c r="H328" s="17"/>
       <c r="I328" s="73" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="J328" s="19" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="27">
@@ -11206,16 +11208,16 @@
       </c>
       <c r="D329" s="29"/>
       <c r="E329" s="61" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F329" s="62"/>
       <c r="G329" s="63"/>
       <c r="H329" s="64"/>
       <c r="I329" s="74" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="J329" s="19" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -11226,7 +11228,7 @@
       </c>
       <c r="D330" s="29"/>
       <c r="E330" s="45" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F330" s="46"/>
       <c r="G330" s="16"/>
@@ -11242,7 +11244,7 @@
       </c>
       <c r="D331" s="29"/>
       <c r="E331" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F331" s="46"/>
       <c r="G331" s="16"/>
@@ -11258,16 +11260,16 @@
       </c>
       <c r="D332" s="29"/>
       <c r="E332" s="61" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F332" s="62"/>
       <c r="G332" s="63"/>
       <c r="H332" s="64"/>
       <c r="I332" s="74" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="J332" s="19" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -11278,7 +11280,7 @@
       </c>
       <c r="D333" s="29"/>
       <c r="E333" s="45" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F333" s="46"/>
       <c r="G333" s="16"/>
@@ -11294,7 +11296,7 @@
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F334" s="46"/>
       <c r="G334" s="16"/>
@@ -11310,7 +11312,7 @@
       </c>
       <c r="D335" s="29"/>
       <c r="E335" s="45" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F335" s="46"/>
       <c r="G335" s="16"/>
@@ -11326,7 +11328,7 @@
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="45" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F336" s="46"/>
       <c r="G336" s="16"/>
@@ -11342,16 +11344,16 @@
       </c>
       <c r="D337" s="29"/>
       <c r="E337" s="61" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F337" s="62"/>
       <c r="G337" s="63"/>
       <c r="H337" s="64"/>
       <c r="I337" s="74" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="J337" s="19" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -11362,7 +11364,7 @@
       </c>
       <c r="D338" s="29"/>
       <c r="E338" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F338" s="46"/>
       <c r="G338" s="16"/>
@@ -11378,7 +11380,7 @@
       </c>
       <c r="D339" s="29"/>
       <c r="E339" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F339" s="46"/>
       <c r="G339" s="16"/>
@@ -11394,7 +11396,7 @@
       </c>
       <c r="D340" s="29"/>
       <c r="E340" s="45" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F340" s="46"/>
       <c r="G340" s="16"/>
@@ -11410,7 +11412,7 @@
       </c>
       <c r="D341" s="29"/>
       <c r="E341" s="45" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F341" s="46"/>
       <c r="G341" s="16"/>
@@ -11426,7 +11428,7 @@
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F342" s="46"/>
       <c r="G342" s="16"/>
@@ -11442,7 +11444,7 @@
       </c>
       <c r="D343" s="29"/>
       <c r="E343" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F343" s="46"/>
       <c r="G343" s="16"/>
@@ -11458,18 +11460,18 @@
       </c>
       <c r="D344" s="29"/>
       <c r="E344" s="61" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F344" s="66" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G344" s="16"/>
       <c r="H344" s="17"/>
       <c r="I344" s="73" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="J344" s="19" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -11480,7 +11482,7 @@
       </c>
       <c r="D345" s="29"/>
       <c r="E345" s="45" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F345" s="46"/>
       <c r="G345" s="16"/>
@@ -11496,7 +11498,7 @@
       </c>
       <c r="D346" s="29"/>
       <c r="E346" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F346" s="46"/>
       <c r="G346" s="16"/>
@@ -11512,7 +11514,7 @@
       </c>
       <c r="D347" s="29"/>
       <c r="E347" s="45" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F347" s="46"/>
       <c r="G347" s="16"/>
@@ -11528,7 +11530,7 @@
       </c>
       <c r="D348" s="29"/>
       <c r="E348" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F348" s="46"/>
       <c r="G348" s="16"/>
@@ -11544,7 +11546,7 @@
       </c>
       <c r="D349" s="29"/>
       <c r="E349" s="45" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F349" s="46"/>
       <c r="G349" s="16"/>
@@ -11560,7 +11562,7 @@
       </c>
       <c r="D350" s="29"/>
       <c r="E350" s="45" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F350" s="46"/>
       <c r="G350" s="16"/>
@@ -11576,7 +11578,7 @@
       </c>
       <c r="D351" s="29"/>
       <c r="E351" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F351" s="46"/>
       <c r="G351" s="16"/>
@@ -11592,7 +11594,7 @@
       </c>
       <c r="D352" s="29"/>
       <c r="E352" s="45" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F352" s="46"/>
       <c r="G352" s="16"/>
@@ -11608,7 +11610,7 @@
       </c>
       <c r="D353" s="29"/>
       <c r="E353" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F353" s="46"/>
       <c r="G353" s="16"/>
@@ -11624,7 +11626,7 @@
       </c>
       <c r="D354" s="29"/>
       <c r="E354" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F354" s="46"/>
       <c r="G354" s="16"/>
@@ -11640,7 +11642,7 @@
       </c>
       <c r="D355" s="29"/>
       <c r="E355" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F355" s="46"/>
       <c r="G355" s="16"/>
@@ -11656,7 +11658,7 @@
       </c>
       <c r="D356" s="29"/>
       <c r="E356" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F356" s="46"/>
       <c r="G356" s="16"/>
@@ -11672,7 +11674,7 @@
       </c>
       <c r="D357" s="29"/>
       <c r="E357" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F357" s="46"/>
       <c r="G357" s="16"/>
@@ -11688,7 +11690,7 @@
       </c>
       <c r="D358" s="29"/>
       <c r="E358" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F358" s="46"/>
       <c r="G358" s="16"/>
@@ -11704,7 +11706,7 @@
       </c>
       <c r="D359" s="29"/>
       <c r="E359" s="45" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F359" s="46"/>
       <c r="G359" s="16"/>
@@ -11720,7 +11722,7 @@
       </c>
       <c r="D360" s="29"/>
       <c r="E360" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F360" s="46"/>
       <c r="G360" s="16"/>
@@ -11736,7 +11738,7 @@
       </c>
       <c r="D361" s="29"/>
       <c r="E361" s="45" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F361" s="46"/>
       <c r="G361" s="16"/>
@@ -11752,7 +11754,7 @@
       </c>
       <c r="D362" s="29"/>
       <c r="E362" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F362" s="46"/>
       <c r="G362" s="16"/>
@@ -11768,7 +11770,7 @@
       </c>
       <c r="D363" s="29"/>
       <c r="E363" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F363" s="46"/>
       <c r="G363" s="16"/>
@@ -11784,7 +11786,7 @@
       </c>
       <c r="D364" s="29"/>
       <c r="E364" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F364" s="46"/>
       <c r="G364" s="16"/>
@@ -11800,7 +11802,7 @@
       </c>
       <c r="D365" s="29"/>
       <c r="E365" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F365" s="46"/>
       <c r="G365" s="16"/>
@@ -11816,7 +11818,7 @@
       </c>
       <c r="D366" s="29"/>
       <c r="E366" s="45" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F366" s="46"/>
       <c r="G366" s="16"/>
@@ -11832,18 +11834,18 @@
       </c>
       <c r="D367" s="29"/>
       <c r="E367" s="61" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F367" s="65" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G367" s="16"/>
       <c r="H367" s="17"/>
       <c r="I367" s="73" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="J367" s="19" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -11854,7 +11856,7 @@
       </c>
       <c r="D368" s="29"/>
       <c r="E368" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F368" s="46"/>
       <c r="G368" s="16"/>
@@ -11870,7 +11872,7 @@
       </c>
       <c r="D369" s="29"/>
       <c r="E369" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F369" s="46"/>
       <c r="G369" s="16"/>
@@ -11886,16 +11888,16 @@
       </c>
       <c r="D370" s="29"/>
       <c r="E370" s="61" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F370" s="62"/>
       <c r="G370" s="63"/>
       <c r="H370" s="64"/>
       <c r="I370" s="74" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="J370" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -11906,7 +11908,7 @@
       </c>
       <c r="D371" s="29"/>
       <c r="E371" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F371" s="46"/>
       <c r="G371" s="16"/>
@@ -11918,14 +11920,14 @@
       <c r="A372" s="28"/>
       <c r="B372" s="29"/>
       <c r="C372" s="29" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D372" s="29"/>
       <c r="E372" s="45" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F372" s="57" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G372" s="16"/>
       <c r="H372" s="17"/>
@@ -11936,11 +11938,11 @@
       <c r="A373" s="28"/>
       <c r="B373" s="29"/>
       <c r="C373" s="29" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D373" s="29"/>
       <c r="E373" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F373" s="46"/>
       <c r="G373" s="16"/>
@@ -11952,11 +11954,11 @@
       <c r="A374" s="28"/>
       <c r="B374" s="29"/>
       <c r="C374" s="29" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D374" s="29"/>
       <c r="E374" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F374" s="46"/>
       <c r="G374" s="16"/>
@@ -11968,11 +11970,11 @@
       <c r="A375" s="28"/>
       <c r="B375" s="29"/>
       <c r="C375" s="29" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D375" s="29"/>
       <c r="E375" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F375" s="46"/>
       <c r="G375" s="16"/>
@@ -11984,11 +11986,11 @@
       <c r="A376" s="28"/>
       <c r="B376" s="29"/>
       <c r="C376" s="29" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D376" s="29"/>
       <c r="E376" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F376" s="46"/>
       <c r="G376" s="16"/>
@@ -12000,11 +12002,11 @@
       <c r="A377" s="28"/>
       <c r="B377" s="29"/>
       <c r="C377" s="29" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D377" s="29"/>
       <c r="E377" s="45" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F377" s="46"/>
       <c r="G377" s="16"/>
@@ -12016,11 +12018,11 @@
       <c r="A378" s="28"/>
       <c r="B378" s="29"/>
       <c r="C378" s="29" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D378" s="29"/>
       <c r="E378" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F378" s="46"/>
       <c r="G378" s="16"/>
@@ -12032,11 +12034,11 @@
       <c r="A379" s="28"/>
       <c r="B379" s="29"/>
       <c r="C379" s="29" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D379" s="29"/>
       <c r="E379" s="45" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F379" s="46"/>
       <c r="G379" s="16"/>
@@ -12046,7 +12048,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380" s="78" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B380" s="79"/>
       <c r="C380" s="79"/>
@@ -12063,14 +12065,14 @@
         <v>177</v>
       </c>
       <c r="B381" s="18" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C381" s="18" t="s">
         <v>178</v>
       </c>
       <c r="D381" s="18"/>
       <c r="E381" s="25" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F381" s="25"/>
       <c r="G381" s="16"/>
@@ -12083,14 +12085,14 @@
         <v>179</v>
       </c>
       <c r="B382" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C382" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D382" s="18"/>
       <c r="E382" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F382" s="25"/>
       <c r="G382" s="16"/>
@@ -12103,14 +12105,14 @@
         <v>181</v>
       </c>
       <c r="B383" s="18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C383" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D383" s="18"/>
       <c r="E383" s="25" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F383" s="25"/>
       <c r="G383" s="16"/>
@@ -12123,14 +12125,14 @@
         <v>183</v>
       </c>
       <c r="B384" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C384" s="18" t="s">
         <v>184</v>
       </c>
       <c r="D384" s="18"/>
       <c r="E384" s="25" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F384" s="25"/>
       <c r="G384" s="16"/>
@@ -12143,14 +12145,14 @@
         <v>185</v>
       </c>
       <c r="B385" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C385" s="18" t="s">
         <v>186</v>
       </c>
       <c r="D385" s="18"/>
       <c r="E385" s="25" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F385" s="25"/>
       <c r="G385" s="16"/>
@@ -12163,14 +12165,14 @@
         <v>187</v>
       </c>
       <c r="B386" s="18" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C386" s="18" t="s">
         <v>467</v>
       </c>
       <c r="D386" s="18"/>
       <c r="E386" s="25" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F386" s="25"/>
       <c r="G386" s="16"/>
@@ -12183,14 +12185,14 @@
         <v>188</v>
       </c>
       <c r="B387" s="18" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C387" s="18" t="s">
         <v>189</v>
       </c>
       <c r="D387" s="18"/>
       <c r="E387" s="25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F387" s="25"/>
       <c r="G387" s="16"/>
@@ -12203,14 +12205,14 @@
         <v>466</v>
       </c>
       <c r="B388" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C388" s="18" t="s">
         <v>190</v>
       </c>
       <c r="D388" s="18"/>
       <c r="E388" s="25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F388" s="25"/>
       <c r="G388" s="16"/>
@@ -12223,14 +12225,14 @@
         <v>191</v>
       </c>
       <c r="B389" s="18" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C389" s="18" t="s">
         <v>463</v>
       </c>
       <c r="D389" s="18"/>
       <c r="E389" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F389" s="25"/>
       <c r="G389" s="16"/>
@@ -12243,14 +12245,14 @@
         <v>465</v>
       </c>
       <c r="B390" s="18" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C390" s="18" t="s">
         <v>464</v>
       </c>
       <c r="D390" s="18"/>
       <c r="E390" s="25" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F390" s="25"/>
       <c r="G390" s="16"/>
@@ -12263,7 +12265,7 @@
         <v>193</v>
       </c>
       <c r="B391" s="18" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="18"/>
@@ -12279,7 +12281,7 @@
         <v>192</v>
       </c>
       <c r="B392" s="18" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="18"/>
@@ -12298,7 +12300,7 @@
       </c>
       <c r="D393" s="29"/>
       <c r="E393" s="25" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F393" s="25"/>
       <c r="G393" s="16"/>
@@ -12314,7 +12316,7 @@
       </c>
       <c r="D394" s="29"/>
       <c r="E394" s="25" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F394" s="25"/>
       <c r="G394" s="16"/>
@@ -12326,11 +12328,11 @@
       <c r="A395" s="28"/>
       <c r="B395" s="29"/>
       <c r="C395" s="29" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D395" s="29"/>
       <c r="E395" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F395" s="25"/>
       <c r="G395" s="16"/>
@@ -12346,7 +12348,7 @@
       </c>
       <c r="D396" s="29"/>
       <c r="E396" s="25" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F396" s="25"/>
       <c r="G396" s="16"/>
@@ -12358,11 +12360,11 @@
       <c r="A397" s="28"/>
       <c r="B397" s="29"/>
       <c r="C397" s="29" t="s">
-        <v>471</v>
+        <v>1158</v>
       </c>
       <c r="D397" s="29"/>
       <c r="E397" s="25" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F397" s="25"/>
       <c r="G397" s="16"/>
@@ -12374,11 +12376,11 @@
       <c r="A398" s="28"/>
       <c r="B398" s="29"/>
       <c r="C398" s="29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D398" s="29"/>
       <c r="E398" s="25" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F398" s="25"/>
       <c r="G398" s="16"/>
@@ -12390,11 +12392,11 @@
       <c r="A399" s="28"/>
       <c r="B399" s="29"/>
       <c r="C399" s="29" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D399" s="29"/>
       <c r="E399" s="25" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F399" s="25"/>
       <c r="G399" s="16"/>
@@ -12406,11 +12408,11 @@
       <c r="A400" s="28"/>
       <c r="B400" s="29"/>
       <c r="C400" s="29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D400" s="29"/>
       <c r="E400" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F400" s="25"/>
       <c r="G400" s="16"/>
@@ -12420,7 +12422,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="78" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B401" s="79"/>
       <c r="C401" s="79"/>
@@ -12440,18 +12442,18 @@
       </c>
       <c r="D402" s="29"/>
       <c r="E402" s="31" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F402" s="70" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G402" s="63"/>
       <c r="H402" s="64"/>
       <c r="I402" s="74" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="J402" s="19" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -12478,7 +12480,7 @@
       </c>
       <c r="D404" s="29"/>
       <c r="E404" s="25" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F404" s="25"/>
       <c r="G404" s="16"/>
@@ -12494,7 +12496,7 @@
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="31" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F405" s="31"/>
       <c r="G405" s="16"/>
@@ -12510,10 +12512,10 @@
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="31" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="F406" s="58" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G406" s="16"/>
       <c r="H406" s="17"/>
@@ -12540,14 +12542,14 @@
       <c r="A408" s="28"/>
       <c r="B408" s="29"/>
       <c r="C408" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D408" s="29"/>
       <c r="E408" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="F408" s="58" t="s">
         <v>697</v>
-      </c>
-      <c r="F408" s="58" t="s">
-        <v>699</v>
       </c>
       <c r="G408" s="16"/>
       <c r="H408" s="17"/>
@@ -12558,11 +12560,11 @@
       <c r="A409" s="28"/>
       <c r="B409" s="29"/>
       <c r="C409" s="29" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F409" s="25"/>
       <c r="G409" s="16"/>
@@ -12574,11 +12576,11 @@
       <c r="A410" s="28"/>
       <c r="B410" s="29"/>
       <c r="C410" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D410" s="29"/>
       <c r="E410" s="35" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F410" s="35"/>
       <c r="G410" s="16"/>
@@ -12590,11 +12592,11 @@
       <c r="A411" s="28"/>
       <c r="B411" s="29"/>
       <c r="C411" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D411" s="29"/>
       <c r="E411" s="35" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F411" s="35"/>
       <c r="G411" s="16"/>
@@ -12606,11 +12608,11 @@
       <c r="A412" s="28"/>
       <c r="B412" s="29"/>
       <c r="C412" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F412" s="25"/>
       <c r="G412" s="16"/>
@@ -12622,11 +12624,11 @@
       <c r="A413" s="28"/>
       <c r="B413" s="29"/>
       <c r="C413" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D413" s="29"/>
       <c r="E413" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F413" s="25"/>
       <c r="G413" s="16"/>
@@ -12642,7 +12644,7 @@
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F414" s="25"/>
       <c r="G414" s="16"/>
@@ -12658,7 +12660,7 @@
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F415" s="25"/>
       <c r="G415" s="16"/>
@@ -12670,11 +12672,11 @@
       <c r="A416" s="28"/>
       <c r="B416" s="29"/>
       <c r="C416" s="29" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F416" s="25"/>
       <c r="G416" s="16"/>
@@ -12686,11 +12688,11 @@
       <c r="A417" s="28"/>
       <c r="B417" s="29"/>
       <c r="C417" s="29" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D417" s="29"/>
       <c r="E417" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F417" s="25"/>
       <c r="G417" s="16"/>
@@ -12702,11 +12704,11 @@
       <c r="A418" s="28"/>
       <c r="B418" s="29"/>
       <c r="C418" s="29" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D418" s="29"/>
       <c r="E418" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F418" s="25"/>
       <c r="G418" s="16"/>
@@ -12718,11 +12720,11 @@
       <c r="A419" s="28"/>
       <c r="B419" s="29"/>
       <c r="C419" s="29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F419" s="25"/>
       <c r="G419" s="16"/>
@@ -12734,14 +12736,14 @@
       <c r="A420" s="28"/>
       <c r="B420" s="29"/>
       <c r="C420" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D420" s="29"/>
       <c r="E420" s="31">
         <v>0</v>
       </c>
       <c r="F420" s="58" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="G420" s="16"/>
       <c r="H420" s="17"/>
@@ -12752,11 +12754,11 @@
       <c r="A421" s="28"/>
       <c r="B421" s="29"/>
       <c r="C421" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F421" s="25"/>
       <c r="G421" s="16"/>
@@ -12768,7 +12770,7 @@
       <c r="A422" s="28"/>
       <c r="B422" s="29"/>
       <c r="C422" s="36" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D422" s="29"/>
       <c r="E422" s="15"/>
@@ -12782,14 +12784,14 @@
       <c r="A423" s="28"/>
       <c r="B423" s="29"/>
       <c r="C423" s="36" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F423" s="58" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G423" s="16"/>
       <c r="H423" s="17"/>
@@ -12800,22 +12802,22 @@
       <c r="A424" s="28"/>
       <c r="B424" s="29"/>
       <c r="C424" s="36" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D424" s="29"/>
       <c r="E424" s="25" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F424" s="70" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G424" s="63"/>
       <c r="H424" s="64"/>
       <c r="I424" s="74" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J424" s="19" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="425" spans="1:10">
@@ -12826,7 +12828,7 @@
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F425" s="25"/>
       <c r="G425" s="16"/>
@@ -12842,7 +12844,7 @@
       </c>
       <c r="D426" s="29"/>
       <c r="E426" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F426" s="25"/>
       <c r="G426" s="16"/>
@@ -12858,7 +12860,7 @@
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F427" s="25"/>
       <c r="G427" s="16"/>
@@ -12874,7 +12876,7 @@
       </c>
       <c r="D428" s="29"/>
       <c r="E428" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F428" s="25"/>
       <c r="G428" s="16"/>
@@ -12890,7 +12892,7 @@
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F429" s="25"/>
       <c r="G429" s="16"/>
@@ -12906,7 +12908,7 @@
       </c>
       <c r="D430" s="29"/>
       <c r="E430" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F430" s="25"/>
       <c r="G430" s="16"/>
@@ -12922,7 +12924,7 @@
       </c>
       <c r="D431" s="29"/>
       <c r="E431" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F431" s="25"/>
       <c r="G431" s="16"/>
@@ -12938,7 +12940,7 @@
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F432" s="25"/>
       <c r="G432" s="16"/>
@@ -12954,7 +12956,7 @@
       </c>
       <c r="D433" s="29"/>
       <c r="E433" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F433" s="25"/>
       <c r="G433" s="16"/>
@@ -12970,7 +12972,7 @@
       </c>
       <c r="D434" s="29"/>
       <c r="E434" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F434" s="25"/>
       <c r="G434" s="16"/>
@@ -12986,7 +12988,7 @@
       </c>
       <c r="D435" s="29"/>
       <c r="E435" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F435" s="25"/>
       <c r="G435" s="16"/>
@@ -13002,7 +13004,7 @@
       </c>
       <c r="D436" s="29"/>
       <c r="E436" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F436" s="25"/>
       <c r="G436" s="16"/>
@@ -13018,7 +13020,7 @@
       </c>
       <c r="D437" s="29"/>
       <c r="E437" s="25" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F437" s="25"/>
       <c r="G437" s="16"/>
@@ -13034,7 +13036,7 @@
       </c>
       <c r="D438" s="29"/>
       <c r="E438" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F438" s="25"/>
       <c r="G438" s="16"/>
@@ -13050,7 +13052,7 @@
       </c>
       <c r="D439" s="29"/>
       <c r="E439" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F439" s="25"/>
       <c r="G439" s="16"/>
@@ -13066,7 +13068,7 @@
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F440" s="25"/>
       <c r="G440" s="16"/>
@@ -13078,33 +13080,33 @@
       <c r="A441" s="28"/>
       <c r="B441" s="29"/>
       <c r="C441" s="36" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="71" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F441" s="72" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G441" s="63"/>
       <c r="H441" s="64"/>
       <c r="I441" s="74" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="J441" s="19" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="442" spans="1:10">
       <c r="A442" s="28"/>
       <c r="B442" s="29"/>
       <c r="C442" s="36" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F442" s="25"/>
       <c r="G442" s="16"/>
@@ -13116,11 +13118,11 @@
       <c r="A443" s="28"/>
       <c r="B443" s="29"/>
       <c r="C443" s="36" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F443" s="25"/>
       <c r="G443" s="16"/>
@@ -13132,11 +13134,11 @@
       <c r="A444" s="28"/>
       <c r="B444" s="29"/>
       <c r="C444" s="36" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F444" s="25"/>
       <c r="G444" s="16"/>
@@ -13148,7 +13150,7 @@
       <c r="A445" s="28"/>
       <c r="B445" s="29"/>
       <c r="C445" s="36" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="31">
@@ -13164,7 +13166,7 @@
       <c r="A446" s="28"/>
       <c r="B446" s="29"/>
       <c r="C446" s="36" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="37">
@@ -13180,7 +13182,7 @@
       <c r="A447" s="28"/>
       <c r="B447" s="29"/>
       <c r="C447" s="36" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="31">
@@ -13196,7 +13198,7 @@
       <c r="A448" s="28"/>
       <c r="B448" s="29"/>
       <c r="C448" s="36" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D448" s="29"/>
       <c r="E448" s="31">
@@ -13212,11 +13214,11 @@
       <c r="A449" s="28"/>
       <c r="B449" s="29"/>
       <c r="C449" s="36" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D449" s="29"/>
       <c r="E449" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F449" s="25"/>
       <c r="G449" s="16"/>
@@ -13228,11 +13230,11 @@
       <c r="A450" s="28"/>
       <c r="B450" s="29"/>
       <c r="C450" s="29" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D450" s="29"/>
       <c r="E450" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F450" s="25"/>
       <c r="G450" s="16"/>
@@ -13244,11 +13246,11 @@
       <c r="A451" s="28"/>
       <c r="B451" s="29"/>
       <c r="C451" s="29" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D451" s="29"/>
       <c r="E451" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F451" s="25"/>
       <c r="G451" s="16"/>
@@ -13260,7 +13262,7 @@
       <c r="A452" s="28"/>
       <c r="B452" s="29"/>
       <c r="C452" s="29" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D452" s="29"/>
       <c r="E452" s="31">
@@ -13276,11 +13278,11 @@
       <c r="A453" s="28"/>
       <c r="B453" s="29"/>
       <c r="C453" s="29" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F453" s="25"/>
       <c r="G453" s="16"/>
@@ -13292,11 +13294,11 @@
       <c r="A454" s="28"/>
       <c r="B454" s="29"/>
       <c r="C454" s="29" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F454" s="25"/>
       <c r="G454" s="16"/>
@@ -13308,11 +13310,11 @@
       <c r="A455" s="28"/>
       <c r="B455" s="29"/>
       <c r="C455" s="29" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F455" s="25"/>
       <c r="G455" s="16"/>
@@ -13328,7 +13330,7 @@
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F456" s="25"/>
       <c r="G456" s="16"/>
@@ -13347,26 +13349,26 @@
         <v>1</v>
       </c>
       <c r="F457" s="70" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="G457" s="63"/>
       <c r="H457" s="64"/>
       <c r="I457" s="74" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="J457" s="19" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="458" spans="1:10">
       <c r="A458" s="28"/>
       <c r="B458" s="29"/>
       <c r="C458" s="29" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D458" s="29"/>
       <c r="E458" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F458" s="25"/>
       <c r="G458" s="16"/>
@@ -13378,11 +13380,11 @@
       <c r="A459" s="28"/>
       <c r="B459" s="29"/>
       <c r="C459" s="29" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D459" s="29"/>
       <c r="E459" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F459" s="25"/>
       <c r="G459" s="16"/>
@@ -13394,11 +13396,11 @@
       <c r="A460" s="28"/>
       <c r="B460" s="29"/>
       <c r="C460" s="29" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D460" s="29"/>
       <c r="E460" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F460" s="25"/>
       <c r="G460" s="16"/>
@@ -13410,11 +13412,11 @@
       <c r="A461" s="28"/>
       <c r="B461" s="29"/>
       <c r="C461" s="29" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D461" s="29"/>
       <c r="E461" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F461" s="25"/>
       <c r="G461" s="16"/>
@@ -13430,29 +13432,29 @@
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F462" s="70" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G462" s="63"/>
       <c r="H462" s="64"/>
       <c r="I462" s="74" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="J462" s="19" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="463" spans="1:10">
       <c r="A463" s="28"/>
       <c r="B463" s="29"/>
       <c r="C463" s="29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F463" s="25"/>
       <c r="G463" s="16"/>
@@ -13464,11 +13466,11 @@
       <c r="A464" s="28"/>
       <c r="B464" s="29"/>
       <c r="C464" s="29" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="35" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F464" s="35"/>
       <c r="G464" s="16"/>
@@ -13484,7 +13486,7 @@
       </c>
       <c r="D465" s="29"/>
       <c r="E465" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F465" s="25"/>
       <c r="G465" s="16"/>
@@ -13496,11 +13498,11 @@
       <c r="A466" s="28"/>
       <c r="B466" s="29"/>
       <c r="C466" s="29" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F466" s="25"/>
       <c r="G466" s="16"/>
@@ -13512,11 +13514,11 @@
       <c r="A467" s="28"/>
       <c r="B467" s="29"/>
       <c r="C467" s="29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F467" s="25"/>
       <c r="G467" s="16"/>
@@ -13528,11 +13530,11 @@
       <c r="A468" s="28"/>
       <c r="B468" s="29"/>
       <c r="C468" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F468" s="25"/>
       <c r="G468" s="16"/>
@@ -13544,11 +13546,11 @@
       <c r="A469" s="28"/>
       <c r="B469" s="29"/>
       <c r="C469" s="29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D469" s="29"/>
       <c r="E469" s="25" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F469" s="25"/>
       <c r="G469" s="16"/>
@@ -13560,12 +13562,12 @@
       <c r="A470" s="28"/>
       <c r="B470" s="29"/>
       <c r="C470" s="29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="15"/>
       <c r="F470" s="58" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G470" s="16"/>
       <c r="H470" s="17"/>
@@ -13576,11 +13578,11 @@
       <c r="A471" s="28"/>
       <c r="B471" s="29"/>
       <c r="C471" s="29" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D471" s="29"/>
       <c r="E471" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F471" s="25"/>
       <c r="G471" s="16"/>
@@ -13592,11 +13594,11 @@
       <c r="A472" s="28"/>
       <c r="B472" s="29"/>
       <c r="C472" s="29" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F472" s="25"/>
       <c r="G472" s="16"/>
@@ -13608,11 +13610,11 @@
       <c r="A473" s="28"/>
       <c r="B473" s="29"/>
       <c r="C473" s="29" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D473" s="29"/>
       <c r="E473" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F473" s="25"/>
       <c r="G473" s="16"/>
@@ -13624,7 +13626,7 @@
       <c r="A474" s="28"/>
       <c r="B474" s="29"/>
       <c r="C474" s="29" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="31">
@@ -13640,11 +13642,11 @@
       <c r="A475" s="28"/>
       <c r="B475" s="29"/>
       <c r="C475" s="29" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D475" s="29"/>
       <c r="E475" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F475" s="25"/>
       <c r="G475" s="16"/>
@@ -13656,11 +13658,11 @@
       <c r="A476" s="28"/>
       <c r="B476" s="29"/>
       <c r="C476" s="29" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F476" s="25"/>
       <c r="G476" s="16"/>
@@ -13672,7 +13674,7 @@
       <c r="A477" s="28"/>
       <c r="B477" s="29"/>
       <c r="C477" s="29" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D477" s="29"/>
       <c r="E477" s="31">
@@ -13688,7 +13690,7 @@
       <c r="A478" s="28"/>
       <c r="B478" s="29"/>
       <c r="C478" s="29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="31">
@@ -13704,7 +13706,7 @@
       <c r="A479" s="28"/>
       <c r="B479" s="29"/>
       <c r="C479" s="29" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="31">
@@ -13736,11 +13738,11 @@
       <c r="A481" s="28"/>
       <c r="B481" s="29"/>
       <c r="C481" s="29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D481" s="29"/>
       <c r="E481" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F481" s="25"/>
       <c r="G481" s="16"/>
@@ -13752,11 +13754,11 @@
       <c r="A482" s="28"/>
       <c r="B482" s="29"/>
       <c r="C482" s="29" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D482" s="29"/>
       <c r="E482" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F482" s="25"/>
       <c r="G482" s="16"/>
@@ -13768,11 +13770,11 @@
       <c r="A483" s="28"/>
       <c r="B483" s="29"/>
       <c r="C483" s="29" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D483" s="29"/>
       <c r="E483" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F483" s="25"/>
       <c r="G483" s="16"/>
@@ -13784,11 +13786,11 @@
       <c r="A484" s="28"/>
       <c r="B484" s="29"/>
       <c r="C484" s="29" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D484" s="29"/>
       <c r="E484" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F484" s="25"/>
       <c r="G484" s="16"/>
@@ -13800,11 +13802,11 @@
       <c r="A485" s="28"/>
       <c r="B485" s="29"/>
       <c r="C485" s="29" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D485" s="29"/>
       <c r="E485" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F485" s="25"/>
       <c r="G485" s="16"/>
@@ -13816,11 +13818,11 @@
       <c r="A486" s="28"/>
       <c r="B486" s="29"/>
       <c r="C486" s="29" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D486" s="29"/>
       <c r="E486" s="15" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F486" s="15"/>
       <c r="G486" s="16"/>
@@ -13832,7 +13834,7 @@
       <c r="A487" s="28"/>
       <c r="B487" s="29"/>
       <c r="C487" s="29" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D487" s="29"/>
       <c r="E487" s="31">
@@ -13848,11 +13850,11 @@
       <c r="A488" s="28"/>
       <c r="B488" s="29"/>
       <c r="C488" s="29" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D488" s="29"/>
       <c r="E488" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F488" s="25"/>
       <c r="G488" s="16"/>
@@ -13864,11 +13866,11 @@
       <c r="A489" s="28"/>
       <c r="B489" s="29"/>
       <c r="C489" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D489" s="29"/>
       <c r="E489" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F489" s="25"/>
       <c r="G489" s="16"/>
@@ -13880,11 +13882,11 @@
       <c r="A490" s="28"/>
       <c r="B490" s="29"/>
       <c r="C490" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D490" s="29"/>
       <c r="E490" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F490" s="25"/>
       <c r="G490" s="16"/>
@@ -13896,11 +13898,11 @@
       <c r="A491" s="28"/>
       <c r="B491" s="29"/>
       <c r="C491" s="29" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D491" s="29"/>
       <c r="E491" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F491" s="25"/>
       <c r="G491" s="16"/>
@@ -13912,11 +13914,11 @@
       <c r="A492" s="28"/>
       <c r="B492" s="29"/>
       <c r="C492" s="29" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D492" s="29"/>
       <c r="E492" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F492" s="25"/>
       <c r="G492" s="16"/>
@@ -13928,11 +13930,11 @@
       <c r="A493" s="28"/>
       <c r="B493" s="29"/>
       <c r="C493" s="29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D493" s="29"/>
       <c r="E493" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F493" s="25"/>
       <c r="G493" s="16"/>
@@ -13944,7 +13946,7 @@
       <c r="A494" s="28"/>
       <c r="B494" s="29"/>
       <c r="C494" s="29" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D494" s="29"/>
       <c r="E494" s="31">
@@ -13960,11 +13962,11 @@
       <c r="A495" s="28"/>
       <c r="B495" s="29"/>
       <c r="C495" s="49" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D495" s="29"/>
       <c r="E495" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F495" s="25"/>
       <c r="G495" s="16"/>
@@ -13976,7 +13978,7 @@
       <c r="A496" s="28"/>
       <c r="B496" s="29"/>
       <c r="C496" s="49" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D496" s="29"/>
       <c r="E496" s="31">
@@ -13992,11 +13994,11 @@
       <c r="A497" s="28"/>
       <c r="B497" s="29"/>
       <c r="C497" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D497" s="29"/>
       <c r="E497" s="25" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F497" s="25"/>
       <c r="G497" s="16"/>
@@ -14008,11 +14010,11 @@
       <c r="A498" s="28"/>
       <c r="B498" s="29"/>
       <c r="C498" s="49" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D498" s="29"/>
       <c r="E498" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F498" s="25"/>
       <c r="G498" s="16"/>
@@ -14024,11 +14026,11 @@
       <c r="A499" s="28"/>
       <c r="B499" s="29"/>
       <c r="C499" s="49" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D499" s="29"/>
       <c r="E499" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F499" s="25"/>
       <c r="G499" s="16"/>
@@ -14040,7 +14042,7 @@
       <c r="A500" s="28"/>
       <c r="B500" s="29"/>
       <c r="C500" s="49" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D500" s="29"/>
       <c r="E500" s="31">
@@ -14056,7 +14058,7 @@
       <c r="A501" s="28"/>
       <c r="B501" s="29"/>
       <c r="C501" s="49" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D501" s="29"/>
       <c r="E501" s="31">
@@ -14072,11 +14074,11 @@
       <c r="A502" s="28"/>
       <c r="B502" s="29"/>
       <c r="C502" s="49" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D502" s="29"/>
       <c r="E502" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F502" s="25"/>
       <c r="G502" s="16"/>
@@ -14088,11 +14090,11 @@
       <c r="A503" s="28"/>
       <c r="B503" s="29"/>
       <c r="C503" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F503" s="25"/>
       <c r="G503" s="16"/>
@@ -14104,11 +14106,11 @@
       <c r="A504" s="28"/>
       <c r="B504" s="29"/>
       <c r="C504" s="49" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D504" s="29"/>
       <c r="E504" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F504" s="25"/>
       <c r="G504" s="16"/>
@@ -14120,14 +14122,14 @@
       <c r="A505" s="28"/>
       <c r="B505" s="29"/>
       <c r="C505" s="49" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D505" s="29"/>
       <c r="E505" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F505" s="58" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G505" s="16"/>
       <c r="H505" s="17"/>
@@ -14138,7 +14140,7 @@
       <c r="A506" s="28"/>
       <c r="B506" s="29"/>
       <c r="C506" s="49" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D506" s="29"/>
       <c r="E506" s="31">
@@ -14154,11 +14156,11 @@
       <c r="A507" s="28"/>
       <c r="B507" s="29"/>
       <c r="C507" s="49" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F507" s="25"/>
       <c r="G507" s="16"/>
@@ -14170,11 +14172,11 @@
       <c r="A508" s="28"/>
       <c r="B508" s="29"/>
       <c r="C508" s="49" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D508" s="29"/>
       <c r="E508" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F508" s="25"/>
       <c r="G508" s="16"/>
@@ -14186,11 +14188,11 @@
       <c r="A509" s="28"/>
       <c r="B509" s="29"/>
       <c r="C509" s="49" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F509" s="25"/>
       <c r="G509" s="16"/>
@@ -14202,11 +14204,11 @@
       <c r="A510" s="28"/>
       <c r="B510" s="29"/>
       <c r="C510" s="49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D510" s="29"/>
       <c r="E510" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F510" s="25"/>
       <c r="G510" s="16"/>
@@ -14218,11 +14220,11 @@
       <c r="A511" s="28"/>
       <c r="B511" s="29"/>
       <c r="C511" s="49" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D511" s="29"/>
       <c r="E511" s="35" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F511" s="35"/>
       <c r="G511" s="16"/>
@@ -14234,11 +14236,11 @@
       <c r="A512" s="28"/>
       <c r="B512" s="29"/>
       <c r="C512" s="49" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F512" s="25"/>
       <c r="G512" s="16"/>
@@ -14250,11 +14252,11 @@
       <c r="A513" s="28"/>
       <c r="B513" s="29"/>
       <c r="C513" s="49" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F513" s="25"/>
       <c r="G513" s="16"/>
@@ -14266,11 +14268,11 @@
       <c r="A514" s="28"/>
       <c r="B514" s="29"/>
       <c r="C514" s="49" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D514" s="29"/>
       <c r="E514" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F514" s="25"/>
       <c r="G514" s="16"/>
@@ -14282,11 +14284,11 @@
       <c r="A515" s="28"/>
       <c r="B515" s="29"/>
       <c r="C515" s="49" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D515" s="29"/>
       <c r="E515" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F515" s="25"/>
       <c r="G515" s="16"/>
@@ -14298,11 +14300,11 @@
       <c r="A516" s="28"/>
       <c r="B516" s="29"/>
       <c r="C516" s="49" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D516" s="29"/>
       <c r="E516" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F516" s="25"/>
       <c r="G516" s="16"/>
@@ -14314,11 +14316,11 @@
       <c r="A517" s="28"/>
       <c r="B517" s="29"/>
       <c r="C517" s="49" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D517" s="29"/>
       <c r="E517" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F517" s="25"/>
       <c r="G517" s="16"/>
@@ -14330,7 +14332,7 @@
       <c r="A518" s="28"/>
       <c r="B518" s="29"/>
       <c r="C518" s="49" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D518" s="29"/>
       <c r="E518" s="31">
@@ -14346,7 +14348,7 @@
       <c r="A519" s="28"/>
       <c r="B519" s="29"/>
       <c r="C519" s="49" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D519" s="29"/>
       <c r="E519" s="31">
@@ -14362,11 +14364,11 @@
       <c r="A520" s="28"/>
       <c r="B520" s="29"/>
       <c r="C520" s="49" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D520" s="29"/>
       <c r="E520" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F520" s="25"/>
       <c r="G520" s="16"/>
@@ -14378,7 +14380,7 @@
       <c r="A521" s="28"/>
       <c r="B521" s="29"/>
       <c r="C521" s="49" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D521" s="29"/>
       <c r="E521" s="31">
@@ -14394,7 +14396,7 @@
       <c r="A522" s="28"/>
       <c r="B522" s="29"/>
       <c r="C522" s="49" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D522" s="29"/>
       <c r="E522" s="31">
@@ -14410,11 +14412,11 @@
       <c r="A523" s="28"/>
       <c r="B523" s="29"/>
       <c r="C523" s="49" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D523" s="29"/>
       <c r="E523" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F523" s="25"/>
       <c r="G523" s="16"/>
@@ -14426,7 +14428,7 @@
       <c r="A524" s="28"/>
       <c r="B524" s="29"/>
       <c r="C524" s="49" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D524" s="29"/>
       <c r="E524" s="31">
@@ -14440,7 +14442,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525" s="78" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B525" s="79"/>
       <c r="C525" s="79"/>
@@ -14456,12 +14458,12 @@
       <c r="A526" s="47"/>
       <c r="B526" s="48"/>
       <c r="C526" s="59" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D526" s="48"/>
       <c r="E526" s="15"/>
       <c r="F526" s="51" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G526" s="16"/>
       <c r="H526" s="17"/>
@@ -14472,11 +14474,11 @@
       <c r="A527" s="28"/>
       <c r="B527" s="29"/>
       <c r="C527" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D527" s="29"/>
       <c r="E527" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F527" s="15"/>
       <c r="G527" s="16"/>
@@ -14488,11 +14490,11 @@
       <c r="A528" s="28"/>
       <c r="B528" s="29"/>
       <c r="C528" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D528" s="29"/>
       <c r="E528" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F528" s="15"/>
       <c r="G528" s="16"/>
@@ -14504,11 +14506,11 @@
       <c r="A529" s="28"/>
       <c r="B529" s="29"/>
       <c r="C529" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D529" s="29"/>
       <c r="E529" s="38" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F529" s="25"/>
       <c r="G529" s="16"/>
@@ -14520,11 +14522,11 @@
       <c r="A530" s="28"/>
       <c r="B530" s="29"/>
       <c r="C530" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D530" s="29"/>
       <c r="E530" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F530" s="25"/>
       <c r="G530" s="16"/>
@@ -14536,11 +14538,11 @@
       <c r="A531" s="28"/>
       <c r="B531" s="29"/>
       <c r="C531" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D531" s="29"/>
       <c r="E531" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F531" s="15"/>
       <c r="G531" s="16"/>
@@ -14552,7 +14554,7 @@
       <c r="A532" s="28"/>
       <c r="B532" s="29"/>
       <c r="C532" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D532" s="29"/>
       <c r="E532" s="39">
@@ -14568,11 +14570,11 @@
       <c r="A533" s="28"/>
       <c r="B533" s="29"/>
       <c r="C533" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D533" s="29"/>
       <c r="E533" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F533" s="25"/>
       <c r="G533" s="16"/>
@@ -14584,11 +14586,11 @@
       <c r="A534" s="28"/>
       <c r="B534" s="29"/>
       <c r="C534" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D534" s="29"/>
       <c r="E534" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F534" s="25"/>
       <c r="G534" s="16"/>
@@ -14600,11 +14602,11 @@
       <c r="A535" s="28"/>
       <c r="B535" s="29"/>
       <c r="C535" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D535" s="29"/>
       <c r="E535" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F535" s="15"/>
       <c r="G535" s="16"/>
@@ -14616,14 +14618,14 @@
       <c r="A536" s="28"/>
       <c r="B536" s="29"/>
       <c r="C536" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D536" s="29"/>
       <c r="E536" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F536" s="51" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G536" s="16"/>
       <c r="H536" s="17"/>
@@ -14634,11 +14636,11 @@
       <c r="A537" s="28"/>
       <c r="B537" s="29"/>
       <c r="C537" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D537" s="29"/>
       <c r="E537" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F537" s="15"/>
       <c r="G537" s="16"/>
@@ -14650,11 +14652,11 @@
       <c r="A538" s="28"/>
       <c r="B538" s="29"/>
       <c r="C538" s="29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D538" s="29"/>
       <c r="E538" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F538" s="15"/>
       <c r="G538" s="16"/>
@@ -14666,11 +14668,11 @@
       <c r="A539" s="28"/>
       <c r="B539" s="29"/>
       <c r="C539" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D539" s="29"/>
       <c r="E539" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F539" s="15"/>
       <c r="G539" s="16"/>
@@ -14682,11 +14684,11 @@
       <c r="A540" s="28"/>
       <c r="B540" s="29"/>
       <c r="C540" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D540" s="29"/>
       <c r="E540" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F540" s="15"/>
       <c r="G540" s="16"/>
@@ -14698,11 +14700,11 @@
       <c r="A541" s="28"/>
       <c r="B541" s="29"/>
       <c r="C541" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D541" s="29"/>
       <c r="E541" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F541" s="15"/>
       <c r="G541" s="16"/>
@@ -14714,11 +14716,11 @@
       <c r="A542" s="28"/>
       <c r="B542" s="29"/>
       <c r="C542" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D542" s="29"/>
       <c r="E542" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F542" s="25"/>
       <c r="G542" s="16"/>
@@ -14730,14 +14732,14 @@
       <c r="A543" s="28"/>
       <c r="B543" s="29"/>
       <c r="C543" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D543" s="29"/>
       <c r="E543" s="38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F543" s="51" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G543" s="16"/>
       <c r="H543" s="17"/>
@@ -14748,11 +14750,11 @@
       <c r="A544" s="28"/>
       <c r="B544" s="29"/>
       <c r="C544" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D544" s="29"/>
       <c r="E544" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F544" s="25"/>
       <c r="G544" s="16"/>
@@ -14764,14 +14766,14 @@
       <c r="A545" s="28"/>
       <c r="B545" s="29"/>
       <c r="C545" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D545" s="29"/>
       <c r="E545" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F545" s="51" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="G545" s="16"/>
       <c r="H545" s="17"/>
@@ -14782,11 +14784,11 @@
       <c r="A546" s="28"/>
       <c r="B546" s="29"/>
       <c r="C546" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D546" s="29"/>
       <c r="E546" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F546" s="25"/>
       <c r="G546" s="16"/>
@@ -14798,11 +14800,11 @@
       <c r="A547" s="28"/>
       <c r="B547" s="29"/>
       <c r="C547" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D547" s="29"/>
       <c r="E547" s="15" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F547" s="15"/>
       <c r="G547" s="16"/>
@@ -14814,11 +14816,11 @@
       <c r="A548" s="28"/>
       <c r="B548" s="29"/>
       <c r="C548" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D548" s="29"/>
       <c r="E548" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F548" s="15"/>
       <c r="G548" s="16"/>
@@ -14830,11 +14832,11 @@
       <c r="A549" s="28"/>
       <c r="B549" s="29"/>
       <c r="C549" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D549" s="29"/>
       <c r="E549" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F549" s="25"/>
       <c r="G549" s="16"/>
@@ -14846,11 +14848,11 @@
       <c r="A550" s="28"/>
       <c r="B550" s="29"/>
       <c r="C550" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D550" s="29"/>
       <c r="E550" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F550" s="25"/>
       <c r="G550" s="16"/>
@@ -14862,14 +14864,14 @@
       <c r="A551" s="28"/>
       <c r="B551" s="29"/>
       <c r="C551" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D551" s="29"/>
       <c r="E551" s="39">
         <v>0</v>
       </c>
       <c r="F551" s="51" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G551" s="16"/>
       <c r="H551" s="17"/>
@@ -14880,11 +14882,11 @@
       <c r="A552" s="28"/>
       <c r="B552" s="29"/>
       <c r="C552" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D552" s="29"/>
       <c r="E552" s="38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F552" s="25"/>
       <c r="G552" s="16"/>
@@ -14896,7 +14898,7 @@
       <c r="A553" s="28"/>
       <c r="B553" s="29"/>
       <c r="C553" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D553" s="29"/>
       <c r="E553" s="39">
@@ -14912,11 +14914,11 @@
       <c r="A554" s="28"/>
       <c r="B554" s="29"/>
       <c r="C554" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D554" s="29"/>
       <c r="E554" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F554" s="25"/>
       <c r="G554" s="16"/>
@@ -14928,11 +14930,11 @@
       <c r="A555" s="28"/>
       <c r="B555" s="29"/>
       <c r="C555" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D555" s="29"/>
       <c r="E555" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F555" s="25"/>
       <c r="G555" s="16"/>
@@ -14944,11 +14946,11 @@
       <c r="A556" s="28"/>
       <c r="B556" s="29"/>
       <c r="C556" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D556" s="29"/>
       <c r="E556" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F556" s="15"/>
       <c r="G556" s="16"/>
@@ -14960,11 +14962,11 @@
       <c r="A557" s="28"/>
       <c r="B557" s="29"/>
       <c r="C557" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D557" s="29"/>
       <c r="E557" s="38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F557" s="25"/>
       <c r="G557" s="16"/>
@@ -14976,7 +14978,7 @@
       <c r="A558" s="28"/>
       <c r="B558" s="29"/>
       <c r="C558" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D558" s="29"/>
       <c r="E558" s="39">
@@ -14992,11 +14994,11 @@
       <c r="A559" s="28"/>
       <c r="B559" s="29"/>
       <c r="C559" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D559" s="29"/>
       <c r="E559" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F559" s="25"/>
       <c r="G559" s="16"/>
@@ -15008,14 +15010,14 @@
       <c r="A560" s="28"/>
       <c r="B560" s="29"/>
       <c r="C560" s="29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D560" s="29"/>
       <c r="E560" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F560" s="51" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G560" s="16"/>
       <c r="H560" s="17"/>
@@ -15026,11 +15028,11 @@
       <c r="A561" s="28"/>
       <c r="B561" s="29"/>
       <c r="C561" s="29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F561" s="15"/>
       <c r="G561" s="16"/>
@@ -15042,11 +15044,11 @@
       <c r="A562" s="28"/>
       <c r="B562" s="29"/>
       <c r="C562" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F562" s="15"/>
       <c r="G562" s="16"/>
@@ -15058,14 +15060,14 @@
       <c r="A563" s="28"/>
       <c r="B563" s="29"/>
       <c r="C563" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="15" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F563" s="45" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G563" s="16"/>
       <c r="H563" s="17"/>
@@ -15076,11 +15078,11 @@
       <c r="A564" s="28"/>
       <c r="B564" s="29"/>
       <c r="C564" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F564" s="15"/>
       <c r="G564" s="16"/>
@@ -15092,11 +15094,11 @@
       <c r="A565" s="28"/>
       <c r="B565" s="29"/>
       <c r="C565" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F565" s="15"/>
       <c r="G565" s="16"/>
@@ -15108,11 +15110,11 @@
       <c r="A566" s="28"/>
       <c r="B566" s="29"/>
       <c r="C566" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D566" s="29"/>
       <c r="E566" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F566" s="15"/>
       <c r="G566" s="16"/>
@@ -15124,11 +15126,11 @@
       <c r="A567" s="28"/>
       <c r="B567" s="29"/>
       <c r="C567" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D567" s="29"/>
       <c r="E567" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F567" s="25"/>
       <c r="G567" s="16"/>
@@ -15140,11 +15142,11 @@
       <c r="A568" s="28"/>
       <c r="B568" s="29"/>
       <c r="C568" s="29" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D568" s="29"/>
       <c r="E568" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F568" s="15"/>
       <c r="G568" s="16"/>
@@ -15156,11 +15158,11 @@
       <c r="A569" s="28"/>
       <c r="B569" s="29"/>
       <c r="C569" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D569" s="29"/>
       <c r="E569" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F569" s="25"/>
       <c r="G569" s="16"/>
@@ -15172,11 +15174,11 @@
       <c r="A570" s="28"/>
       <c r="B570" s="29"/>
       <c r="C570" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F570" s="15"/>
       <c r="G570" s="16"/>
@@ -15188,11 +15190,11 @@
       <c r="A571" s="28"/>
       <c r="B571" s="29"/>
       <c r="C571" s="29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F571" s="25"/>
       <c r="G571" s="16"/>
@@ -15204,11 +15206,11 @@
       <c r="A572" s="28"/>
       <c r="B572" s="29"/>
       <c r="C572" s="29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D572" s="29"/>
       <c r="E572" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F572" s="25"/>
       <c r="G572" s="16"/>
@@ -15220,11 +15222,11 @@
       <c r="A573" s="28"/>
       <c r="B573" s="29"/>
       <c r="C573" s="29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F573" s="15"/>
       <c r="G573" s="16"/>
@@ -15236,11 +15238,11 @@
       <c r="A574" s="28"/>
       <c r="B574" s="29"/>
       <c r="C574" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F574" s="15"/>
       <c r="G574" s="16"/>
@@ -15252,11 +15254,11 @@
       <c r="A575" s="28"/>
       <c r="B575" s="29"/>
       <c r="C575" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D575" s="29"/>
       <c r="E575" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F575" s="15"/>
       <c r="G575" s="16"/>
@@ -15268,11 +15270,11 @@
       <c r="A576" s="28"/>
       <c r="B576" s="29"/>
       <c r="C576" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D576" s="29"/>
       <c r="E576" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F576" s="25"/>
       <c r="G576" s="16"/>
@@ -15284,11 +15286,11 @@
       <c r="A577" s="28"/>
       <c r="B577" s="29"/>
       <c r="C577" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D577" s="29"/>
       <c r="E577" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F577" s="15"/>
       <c r="G577" s="16"/>
@@ -15300,33 +15302,33 @@
       <c r="A578" s="28"/>
       <c r="B578" s="29"/>
       <c r="C578" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D578" s="29"/>
       <c r="E578" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F578" s="73" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G578" s="63"/>
       <c r="H578" s="64"/>
       <c r="I578" s="74" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="J578" s="19" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="579" spans="1:10">
       <c r="A579" s="28"/>
       <c r="B579" s="29"/>
       <c r="C579" s="29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D579" s="29"/>
       <c r="E579" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F579" s="25"/>
       <c r="G579" s="16"/>
@@ -15338,11 +15340,11 @@
       <c r="A580" s="28"/>
       <c r="B580" s="29"/>
       <c r="C580" s="29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D580" s="29"/>
       <c r="E580" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F580" s="15"/>
       <c r="G580" s="16"/>
@@ -15354,11 +15356,11 @@
       <c r="A581" s="28"/>
       <c r="B581" s="29"/>
       <c r="C581" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D581" s="29"/>
       <c r="E581" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F581" s="25"/>
       <c r="G581" s="16"/>
@@ -15370,11 +15372,11 @@
       <c r="A582" s="28"/>
       <c r="B582" s="29"/>
       <c r="C582" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D582" s="29"/>
       <c r="E582" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F582" s="15"/>
       <c r="G582" s="16"/>
@@ -15386,33 +15388,33 @@
       <c r="A583" s="28"/>
       <c r="B583" s="29"/>
       <c r="C583" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D583" s="29"/>
       <c r="E583" s="15" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F583" s="73" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G583" s="63"/>
       <c r="H583" s="64"/>
       <c r="I583" s="74" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="J583" s="19" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="584" spans="1:10">
       <c r="A584" s="28"/>
       <c r="B584" s="29"/>
       <c r="C584" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D584" s="29"/>
       <c r="E584" s="15" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F584" s="15"/>
       <c r="G584" s="16"/>
@@ -15424,11 +15426,11 @@
       <c r="A585" s="28"/>
       <c r="B585" s="29"/>
       <c r="C585" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D585" s="29"/>
       <c r="E585" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F585" s="15"/>
       <c r="G585" s="16"/>
@@ -15440,11 +15442,11 @@
       <c r="A586" s="28"/>
       <c r="B586" s="29"/>
       <c r="C586" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D586" s="29"/>
       <c r="E586" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F586" s="25"/>
       <c r="G586" s="16"/>
@@ -15456,7 +15458,7 @@
       <c r="A587" s="28"/>
       <c r="B587" s="29"/>
       <c r="C587" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D587" s="29"/>
       <c r="E587" s="39">
@@ -15472,11 +15474,11 @@
       <c r="A588" s="28"/>
       <c r="B588" s="29"/>
       <c r="C588" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D588" s="29"/>
       <c r="E588" s="38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F588" s="25"/>
       <c r="G588" s="16"/>
@@ -15488,14 +15490,14 @@
       <c r="A589" s="28"/>
       <c r="B589" s="29"/>
       <c r="C589" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D589" s="29"/>
       <c r="E589" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F589" s="45" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G589" s="16"/>
       <c r="H589" s="17"/>
@@ -15506,11 +15508,11 @@
       <c r="A590" s="28"/>
       <c r="B590" s="29"/>
       <c r="C590" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D590" s="29"/>
       <c r="E590" s="38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F590" s="25"/>
       <c r="G590" s="16"/>
@@ -15522,11 +15524,11 @@
       <c r="A591" s="28"/>
       <c r="B591" s="29"/>
       <c r="C591" s="29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D591" s="29"/>
       <c r="E591" s="15" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F591" s="15"/>
       <c r="G591" s="16"/>
@@ -15538,11 +15540,11 @@
       <c r="A592" s="28"/>
       <c r="B592" s="29"/>
       <c r="C592" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D592" s="29"/>
       <c r="E592" s="38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F592" s="25"/>
       <c r="G592" s="16"/>
@@ -15554,11 +15556,11 @@
       <c r="A593" s="28"/>
       <c r="B593" s="29"/>
       <c r="C593" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D593" s="29"/>
       <c r="E593" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F593" s="15"/>
       <c r="G593" s="16"/>
@@ -15570,7 +15572,7 @@
       <c r="A594" s="28"/>
       <c r="B594" s="29"/>
       <c r="C594" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D594" s="29"/>
       <c r="E594" s="39">
@@ -15586,11 +15588,11 @@
       <c r="A595" s="28"/>
       <c r="B595" s="29"/>
       <c r="C595" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D595" s="29"/>
       <c r="E595" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F595" s="15"/>
       <c r="G595" s="16"/>
@@ -15602,11 +15604,11 @@
       <c r="A596" s="28"/>
       <c r="B596" s="29"/>
       <c r="C596" s="29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D596" s="29"/>
       <c r="E596" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F596" s="25"/>
       <c r="G596" s="16"/>
@@ -15618,7 +15620,7 @@
       <c r="A597" s="28"/>
       <c r="B597" s="29"/>
       <c r="C597" s="29" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D597" s="29"/>
       <c r="E597" s="39">
@@ -15634,11 +15636,11 @@
       <c r="A598" s="28"/>
       <c r="B598" s="29"/>
       <c r="C598" s="29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D598" s="29"/>
       <c r="E598" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F598" s="15"/>
       <c r="G598" s="16"/>
@@ -15650,11 +15652,11 @@
       <c r="A599" s="28"/>
       <c r="B599" s="29"/>
       <c r="C599" s="29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D599" s="29"/>
       <c r="E599" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F599" s="15"/>
       <c r="G599" s="16"/>
@@ -15666,11 +15668,11 @@
       <c r="A600" s="28"/>
       <c r="B600" s="29"/>
       <c r="C600" s="29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D600" s="29"/>
       <c r="E600" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F600" s="15"/>
       <c r="G600" s="16"/>
@@ -15682,11 +15684,11 @@
       <c r="A601" s="28"/>
       <c r="B601" s="29"/>
       <c r="C601" s="29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D601" s="29"/>
       <c r="E601" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F601" s="25"/>
       <c r="G601" s="16"/>
@@ -15698,11 +15700,11 @@
       <c r="A602" s="28"/>
       <c r="B602" s="29"/>
       <c r="C602" s="29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D602" s="29"/>
       <c r="E602" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F602" s="15"/>
       <c r="G602" s="16"/>
@@ -15714,14 +15716,14 @@
       <c r="A603" s="28"/>
       <c r="B603" s="29"/>
       <c r="C603" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D603" s="29"/>
       <c r="E603" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F603" s="51" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G603" s="16"/>
       <c r="H603" s="17"/>
@@ -15732,11 +15734,11 @@
       <c r="A604" s="28"/>
       <c r="B604" s="29"/>
       <c r="C604" s="29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D604" s="29"/>
       <c r="E604" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F604" s="15"/>
       <c r="G604" s="16"/>
@@ -15748,14 +15750,14 @@
       <c r="A605" s="28"/>
       <c r="B605" s="29"/>
       <c r="C605" s="29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D605" s="29"/>
       <c r="E605" s="15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F605" s="51" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="G605" s="16"/>
       <c r="H605" s="17"/>
@@ -15766,11 +15768,11 @@
       <c r="A606" s="28"/>
       <c r="B606" s="29"/>
       <c r="C606" s="29" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D606" s="29"/>
       <c r="E606" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F606" s="15"/>
       <c r="G606" s="16"/>
@@ -15782,11 +15784,11 @@
       <c r="A607" s="28"/>
       <c r="B607" s="29"/>
       <c r="C607" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D607" s="29"/>
       <c r="E607" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F607" s="15"/>
       <c r="G607" s="16"/>
@@ -15798,11 +15800,11 @@
       <c r="A608" s="28"/>
       <c r="B608" s="29"/>
       <c r="C608" s="29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F608" s="25"/>
       <c r="G608" s="16"/>
@@ -15814,14 +15816,14 @@
       <c r="A609" s="28"/>
       <c r="B609" s="29"/>
       <c r="C609" s="29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D609" s="29"/>
       <c r="E609" s="15" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F609" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G609" s="16"/>
       <c r="H609" s="17"/>
@@ -15832,14 +15834,14 @@
       <c r="A610" s="28"/>
       <c r="B610" s="29"/>
       <c r="C610" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D610" s="29"/>
       <c r="E610" s="15" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F610" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G610" s="16"/>
       <c r="H610" s="17"/>
@@ -15850,11 +15852,11 @@
       <c r="A611" s="28"/>
       <c r="B611" s="29"/>
       <c r="C611" s="29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D611" s="29"/>
       <c r="E611" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F611" s="15"/>
       <c r="G611" s="16"/>
@@ -15866,11 +15868,11 @@
       <c r="A612" s="28"/>
       <c r="B612" s="29"/>
       <c r="C612" s="29" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F612" s="15"/>
       <c r="G612" s="16"/>
@@ -15882,11 +15884,11 @@
       <c r="A613" s="28"/>
       <c r="B613" s="29"/>
       <c r="C613" s="29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D613" s="29"/>
       <c r="E613" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F613" s="15"/>
       <c r="G613" s="16"/>
@@ -15898,11 +15900,11 @@
       <c r="A614" s="28"/>
       <c r="B614" s="29"/>
       <c r="C614" s="29" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D614" s="29"/>
       <c r="E614" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F614" s="15"/>
       <c r="G614" s="16"/>
@@ -15914,7 +15916,7 @@
       <c r="A615" s="28"/>
       <c r="B615" s="29"/>
       <c r="C615" s="29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D615" s="29"/>
       <c r="E615" s="39">
@@ -15930,11 +15932,11 @@
       <c r="A616" s="28"/>
       <c r="B616" s="29"/>
       <c r="C616" s="29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D616" s="29"/>
       <c r="E616" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F616" s="25"/>
       <c r="G616" s="16"/>
@@ -15946,7 +15948,7 @@
       <c r="A617" s="28"/>
       <c r="B617" s="29"/>
       <c r="C617" s="29" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D617" s="29"/>
       <c r="E617" s="39">
@@ -15962,11 +15964,11 @@
       <c r="A618" s="28"/>
       <c r="B618" s="29"/>
       <c r="C618" s="29" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D618" s="29"/>
       <c r="E618" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F618" s="15"/>
       <c r="G618" s="16"/>
@@ -15978,11 +15980,11 @@
       <c r="A619" s="28"/>
       <c r="B619" s="29"/>
       <c r="C619" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D619" s="29"/>
       <c r="E619" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F619" s="15"/>
       <c r="G619" s="16"/>
@@ -15994,11 +15996,11 @@
       <c r="A620" s="28"/>
       <c r="B620" s="29"/>
       <c r="C620" s="29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D620" s="29"/>
       <c r="E620" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F620" s="15"/>
       <c r="G620" s="16"/>
@@ -16010,7 +16012,7 @@
       <c r="A621" s="28"/>
       <c r="B621" s="29"/>
       <c r="C621" s="29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="39">
@@ -16026,11 +16028,11 @@
       <c r="A622" s="28"/>
       <c r="B622" s="29"/>
       <c r="C622" s="29" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D622" s="29"/>
       <c r="E622" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F622" s="15"/>
       <c r="G622" s="16"/>
@@ -16042,14 +16044,14 @@
       <c r="A623" s="28"/>
       <c r="B623" s="29"/>
       <c r="C623" s="29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D623" s="29"/>
       <c r="E623" s="15" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F623" s="51" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G623" s="16"/>
       <c r="H623" s="17"/>
@@ -16060,11 +16062,11 @@
       <c r="A624" s="28"/>
       <c r="B624" s="29"/>
       <c r="C624" s="29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D624" s="29"/>
       <c r="E624" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F624" s="15"/>
       <c r="G624" s="16"/>
@@ -16076,11 +16078,11 @@
       <c r="A625" s="28"/>
       <c r="B625" s="29"/>
       <c r="C625" s="29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D625" s="29"/>
       <c r="E625" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F625" s="15"/>
       <c r="G625" s="16"/>
@@ -16092,11 +16094,11 @@
       <c r="A626" s="28"/>
       <c r="B626" s="29"/>
       <c r="C626" s="29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D626" s="29"/>
       <c r="E626" s="15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F626" s="15"/>
       <c r="G626" s="16"/>
@@ -16108,11 +16110,11 @@
       <c r="A627" s="28"/>
       <c r="B627" s="29"/>
       <c r="C627" s="29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D627" s="29"/>
       <c r="E627" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F627" s="25"/>
       <c r="G627" s="16"/>
@@ -16124,11 +16126,11 @@
       <c r="A628" s="28"/>
       <c r="B628" s="29"/>
       <c r="C628" s="29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D628" s="29"/>
       <c r="E628" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F628" s="25"/>
       <c r="G628" s="16"/>
@@ -16140,11 +16142,11 @@
       <c r="A629" s="28"/>
       <c r="B629" s="29"/>
       <c r="C629" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D629" s="29"/>
       <c r="E629" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F629" s="15"/>
       <c r="G629" s="16"/>
@@ -16156,14 +16158,14 @@
       <c r="A630" s="28"/>
       <c r="B630" s="29"/>
       <c r="C630" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D630" s="29"/>
       <c r="E630" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F630" s="51" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G630" s="16"/>
       <c r="H630" s="17"/>
@@ -16174,11 +16176,11 @@
       <c r="A631" s="28"/>
       <c r="B631" s="29"/>
       <c r="C631" s="29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D631" s="29"/>
       <c r="E631" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F631" s="25"/>
       <c r="G631" s="16"/>
@@ -16190,11 +16192,11 @@
       <c r="A632" s="28"/>
       <c r="B632" s="29"/>
       <c r="C632" s="29" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D632" s="29"/>
       <c r="E632" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F632" s="25"/>
       <c r="G632" s="16"/>
@@ -16206,11 +16208,11 @@
       <c r="A633" s="28"/>
       <c r="B633" s="29"/>
       <c r="C633" s="29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D633" s="29"/>
       <c r="E633" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F633" s="25"/>
       <c r="G633" s="16"/>
@@ -16222,11 +16224,11 @@
       <c r="A634" s="28"/>
       <c r="B634" s="29"/>
       <c r="C634" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D634" s="29"/>
       <c r="E634" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F634" s="25"/>
       <c r="G634" s="16"/>
@@ -16238,11 +16240,11 @@
       <c r="A635" s="28"/>
       <c r="B635" s="29"/>
       <c r="C635" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D635" s="29"/>
       <c r="E635" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F635" s="15"/>
       <c r="G635" s="16"/>
@@ -16254,14 +16256,14 @@
       <c r="A636" s="28"/>
       <c r="B636" s="29"/>
       <c r="C636" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D636" s="29"/>
       <c r="E636" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F636" s="51" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G636" s="16"/>
       <c r="H636" s="17"/>
@@ -16272,14 +16274,14 @@
       <c r="A637" s="28"/>
       <c r="B637" s="29"/>
       <c r="C637" s="29" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D637" s="29"/>
       <c r="E637" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F637" s="51" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="G637" s="16"/>
       <c r="H637" s="17"/>
@@ -16290,11 +16292,11 @@
       <c r="A638" s="28"/>
       <c r="B638" s="29"/>
       <c r="C638" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D638" s="29"/>
       <c r="E638" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F638" s="15"/>
       <c r="G638" s="16"/>
@@ -16306,11 +16308,11 @@
       <c r="A639" s="28"/>
       <c r="B639" s="29"/>
       <c r="C639" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D639" s="29"/>
       <c r="E639" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F639" s="25"/>
       <c r="G639" s="16"/>
@@ -16322,7 +16324,7 @@
       <c r="A640" s="28"/>
       <c r="B640" s="29"/>
       <c r="C640" s="29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D640" s="29"/>
       <c r="E640" s="39">
@@ -16338,11 +16340,11 @@
       <c r="A641" s="28"/>
       <c r="B641" s="29"/>
       <c r="C641" s="29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D641" s="29"/>
       <c r="E641" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F641" s="25"/>
       <c r="G641" s="16"/>
@@ -16354,11 +16356,11 @@
       <c r="A642" s="28"/>
       <c r="B642" s="29"/>
       <c r="C642" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D642" s="29"/>
       <c r="E642" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F642" s="25"/>
       <c r="G642" s="16"/>
@@ -16370,11 +16372,11 @@
       <c r="A643" s="28"/>
       <c r="B643" s="29"/>
       <c r="C643" s="29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D643" s="29"/>
       <c r="E643" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F643" s="25"/>
       <c r="G643" s="16"/>
@@ -16386,11 +16388,11 @@
       <c r="A644" s="28"/>
       <c r="B644" s="29"/>
       <c r="C644" s="29" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D644" s="29"/>
       <c r="E644" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F644" s="25"/>
       <c r="G644" s="16"/>
@@ -16402,11 +16404,11 @@
       <c r="A645" s="28"/>
       <c r="B645" s="29"/>
       <c r="C645" s="29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D645" s="29"/>
       <c r="E645" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F645" s="25"/>
       <c r="G645" s="16"/>
@@ -16418,11 +16420,11 @@
       <c r="A646" s="28"/>
       <c r="B646" s="29"/>
       <c r="C646" s="29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D646" s="29"/>
       <c r="E646" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F646" s="25"/>
       <c r="G646" s="16"/>
@@ -16434,14 +16436,14 @@
       <c r="A647" s="28"/>
       <c r="B647" s="29"/>
       <c r="C647" s="29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D647" s="29"/>
       <c r="E647" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F647" s="51" t="s">
         <v>660</v>
-      </c>
-      <c r="F647" s="51" t="s">
-        <v>661</v>
       </c>
       <c r="G647" s="16"/>
       <c r="H647" s="17"/>
@@ -16452,11 +16454,11 @@
       <c r="A648" s="28"/>
       <c r="B648" s="29"/>
       <c r="C648" s="29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D648" s="29"/>
       <c r="E648" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F648" s="25"/>
       <c r="G648" s="16"/>
@@ -16468,11 +16470,11 @@
       <c r="A649" s="28"/>
       <c r="B649" s="29"/>
       <c r="C649" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D649" s="29"/>
       <c r="E649" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F649" s="25"/>
       <c r="G649" s="16"/>
@@ -16484,11 +16486,11 @@
       <c r="A650" s="28"/>
       <c r="B650" s="29"/>
       <c r="C650" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D650" s="29"/>
       <c r="E650" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F650" s="25"/>
       <c r="G650" s="16"/>
@@ -16500,11 +16502,11 @@
       <c r="A651" s="28"/>
       <c r="B651" s="29"/>
       <c r="C651" s="29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F651" s="15"/>
       <c r="G651" s="16"/>
@@ -16516,14 +16518,14 @@
       <c r="A652" s="28"/>
       <c r="B652" s="29"/>
       <c r="C652" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D652" s="29"/>
       <c r="E652" s="38" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F652" s="51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G652" s="16"/>
       <c r="H652" s="17"/>
@@ -16534,11 +16536,11 @@
       <c r="A653" s="28"/>
       <c r="B653" s="29"/>
       <c r="C653" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D653" s="29"/>
       <c r="E653" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F653" s="15"/>
       <c r="G653" s="16"/>
@@ -16550,11 +16552,11 @@
       <c r="A654" s="28"/>
       <c r="B654" s="29"/>
       <c r="C654" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D654" s="29"/>
       <c r="E654" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F654" s="25"/>
       <c r="G654" s="16"/>
@@ -16566,14 +16568,14 @@
       <c r="A655" s="28"/>
       <c r="B655" s="29"/>
       <c r="C655" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D655" s="29"/>
       <c r="E655" s="15" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F655" s="51" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G655" s="16"/>
       <c r="H655" s="17"/>
@@ -16584,11 +16586,11 @@
       <c r="A656" s="28"/>
       <c r="B656" s="29"/>
       <c r="C656" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F656" s="15"/>
       <c r="G656" s="16"/>
@@ -16600,14 +16602,14 @@
       <c r="A657" s="28"/>
       <c r="B657" s="29"/>
       <c r="C657" s="29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D657" s="29"/>
       <c r="E657" s="39">
         <v>0</v>
       </c>
       <c r="F657" s="60" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G657" s="16"/>
       <c r="H657" s="17"/>
@@ -16618,7 +16620,7 @@
       <c r="A658" s="28"/>
       <c r="B658" s="29"/>
       <c r="C658" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D658" s="29"/>
       <c r="E658" s="50"/>
@@ -16632,11 +16634,11 @@
       <c r="A659" s="28"/>
       <c r="B659" s="29"/>
       <c r="C659" s="29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D659" s="29"/>
       <c r="E659" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F659" s="25"/>
       <c r="G659" s="16"/>
@@ -17203,7 +17205,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="89" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -17365,12 +17367,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
